--- a/frintamedfit.xlsx
+++ b/frintamedfit.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="260">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -57,19 +57,19 @@
     <t xml:space="preserve">=~</t>
   </si>
   <si>
-    <t xml:space="preserve">security_freedom_4</t>
+    <t xml:space="preserve">security_freedom_5</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
-    <t xml:space="preserve">security_freedom_5</t>
+    <t xml:space="preserve">security_freedom_6</t>
   </si>
   <si>
     <t xml:space="preserve">3</t>
   </si>
   <si>
-    <t xml:space="preserve">security_freedom_6</t>
+    <t xml:space="preserve">security_freedom_7</t>
   </si>
   <si>
     <t xml:space="preserve">4</t>
@@ -324,15 +324,15 @@
     <t xml:space="preserve">est.std</t>
   </si>
   <si>
-    <t xml:space="preserve">cov.security_freedom_4</t>
-  </si>
-  <si>
     <t xml:space="preserve">cov.security_freedom_5</t>
   </si>
   <si>
     <t xml:space="preserve">cov.security_freedom_6</t>
   </si>
   <si>
+    <t xml:space="preserve">cov.security_freedom_7</t>
+  </si>
+  <si>
     <t xml:space="preserve">cov.Nar_5correct</t>
   </si>
   <si>
@@ -399,13 +399,13 @@
     <t xml:space="preserve">fmin</t>
   </si>
   <si>
-    <t xml:space="preserve">0.354864584470615</t>
+    <t xml:space="preserve">0.369293080322612</t>
   </si>
   <si>
     <t xml:space="preserve">chisq</t>
   </si>
   <si>
-    <t xml:space="preserve">239.888459102136</t>
+    <t xml:space="preserve">249.642122298085</t>
   </si>
   <si>
     <t xml:space="preserve">df</t>
@@ -414,13 +414,13 @@
     <t xml:space="preserve">152</t>
   </si>
   <si>
-    <t xml:space="preserve">0.00000707454541604147</t>
+    <t xml:space="preserve">0.00000101134661079083</t>
   </si>
   <si>
     <t xml:space="preserve">chisq.scaled</t>
   </si>
   <si>
-    <t xml:space="preserve">175.841742434478</t>
+    <t xml:space="preserve">181.348146905718</t>
   </si>
   <si>
     <t xml:space="preserve">df.scaled</t>
@@ -429,19 +429,19 @@
     <t xml:space="preserve">pvalue.scaled</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0901879768936075</t>
+    <t xml:space="preserve">0.0522585519858283</t>
   </si>
   <si>
     <t xml:space="preserve">chisq.scaling.factor</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36422931086185</t>
+    <t xml:space="preserve">1.37659042321438</t>
   </si>
   <si>
     <t xml:space="preserve">baseline.chisq</t>
   </si>
   <si>
-    <t xml:space="preserve">3533.73218787769</t>
+    <t xml:space="preserve">3696.71146899705</t>
   </si>
   <si>
     <t xml:space="preserve">baseline.df</t>
@@ -459,7 +459,7 @@
     <t xml:space="preserve">baseline.chisq.scaled</t>
   </si>
   <si>
-    <t xml:space="preserve">2626.26508002107</t>
+    <t xml:space="preserve">2768.24856019687</t>
   </si>
   <si>
     <t xml:space="preserve">baseline.df.scaled</t>
@@ -471,43 +471,43 @@
     <t xml:space="preserve">baseline.chisq.scaling.factor</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34553522976795</t>
+    <t xml:space="preserve">1.33539723352521</t>
   </si>
   <si>
     <t xml:space="preserve">cfi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.973715460998711</t>
+    <t xml:space="preserve">0.972155644066715</t>
   </si>
   <si>
     <t xml:space="preserve">tli</t>
   </si>
   <si>
-    <t xml:space="preserve">0.967144326248389</t>
+    <t xml:space="preserve">0.965194555083394</t>
   </si>
   <si>
     <t xml:space="preserve">cfi.scaled</t>
   </si>
   <si>
-    <t xml:space="preserve">0.990213814321768</t>
+    <t xml:space="preserve">0.988617021896649</t>
   </si>
   <si>
     <t xml:space="preserve">tli.scaled</t>
   </si>
   <si>
-    <t xml:space="preserve">0.98776726790221</t>
+    <t xml:space="preserve">0.985771277370811</t>
   </si>
   <si>
     <t xml:space="preserve">cfi.robust</t>
   </si>
   <si>
-    <t xml:space="preserve">0.990077850770148</t>
+    <t xml:space="preserve">0.988265889541072</t>
   </si>
   <si>
     <t xml:space="preserve">tli.robust</t>
   </si>
   <si>
-    <t xml:space="preserve">0.987597313462685</t>
+    <t xml:space="preserve">0.98533236192634</t>
   </si>
   <si>
     <t xml:space="preserve">nnfi</t>
@@ -516,25 +516,25 @@
     <t xml:space="preserve">rfi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.915143378746604</t>
+    <t xml:space="preserve">0.915586419040362</t>
   </si>
   <si>
     <t xml:space="preserve">nfi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.932114702997284</t>
+    <t xml:space="preserve">0.932469135232289</t>
   </si>
   <si>
     <t xml:space="preserve">pnfi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.745691762397827</t>
+    <t xml:space="preserve">0.745975308185831</t>
   </si>
   <si>
     <t xml:space="preserve">ifi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.974010816286049</t>
+    <t xml:space="preserve">0.972454141006373</t>
   </si>
   <si>
     <t xml:space="preserve">rni</t>
@@ -546,25 +546,25 @@
     <t xml:space="preserve">rfi.scaled</t>
   </si>
   <si>
-    <t xml:space="preserve">0.916306171941587</t>
+    <t xml:space="preserve">0.918112417038148</t>
   </si>
   <si>
     <t xml:space="preserve">nfi.scaled</t>
   </si>
   <si>
-    <t xml:space="preserve">0.93304493755327</t>
+    <t xml:space="preserve">0.934489933630519</t>
   </si>
   <si>
     <t xml:space="preserve">pnfi.scaled</t>
   </si>
   <si>
-    <t xml:space="preserve">0.746435950042616</t>
+    <t xml:space="preserve">0.747591946904415</t>
   </si>
   <si>
     <t xml:space="preserve">ifi.scaled</t>
   </si>
   <si>
-    <t xml:space="preserve">0.990364111498403</t>
+    <t xml:space="preserve">0.988782355257748</t>
   </si>
   <si>
     <t xml:space="preserve">rni.scaled</t>
@@ -579,25 +579,25 @@
     <t xml:space="preserve">logl</t>
   </si>
   <si>
-    <t xml:space="preserve">-11358.94926865</t>
+    <t xml:space="preserve">-11279.5399317137</t>
   </si>
   <si>
     <t xml:space="preserve">unrestricted.logl</t>
   </si>
   <si>
-    <t xml:space="preserve">-11239.0050390989</t>
+    <t xml:space="preserve">-11154.7188705646</t>
   </si>
   <si>
     <t xml:space="preserve">aic</t>
   </si>
   <si>
-    <t xml:space="preserve">22831.8985373</t>
+    <t xml:space="preserve">22673.0798634273</t>
   </si>
   <si>
     <t xml:space="preserve">bic</t>
   </si>
   <si>
-    <t xml:space="preserve">23049.8121533426</t>
+    <t xml:space="preserve">22890.9934794698</t>
   </si>
   <si>
     <t xml:space="preserve">ntotal</t>
@@ -609,25 +609,25 @@
     <t xml:space="preserve">bic2</t>
   </si>
   <si>
-    <t xml:space="preserve">22868.999369174</t>
+    <t xml:space="preserve">22710.1806953013</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0413605000772568</t>
+    <t xml:space="preserve">0.0435951785897511</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.ci.lower</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0311008464601117</t>
+    <t xml:space="preserve">0.0336569990056613</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.ci.upper</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0510740046393838</t>
+    <t xml:space="preserve">0.0531239129132519</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.ci.level</t>
@@ -639,7 +639,7 @@
     <t xml:space="preserve">rmsea.pvalue</t>
   </si>
   <si>
-    <t xml:space="preserve">0.926984021900109</t>
+    <t xml:space="preserve">0.860721524416852</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.close.h0</t>
@@ -651,7 +651,7 @@
     <t xml:space="preserve">rmsea.notclose.pvalue</t>
   </si>
   <si>
-    <t xml:space="preserve">0.000000000000458766866705537</t>
+    <t xml:space="preserve">0.00000000000574634118993859</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.notclose.h0</t>
@@ -663,34 +663,37 @@
     <t xml:space="preserve">rmsea.scaled</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0215421403896573</t>
+    <t xml:space="preserve">0.0239006767410196</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.ci.lower.scaled</t>
   </si>
   <si>
+    <t xml:space="preserve">0.0082871607327991</t>
+  </si>
+  <si>
     <t xml:space="preserve">rmsea.ci.upper.scaled</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0327322829849594</t>
+    <t xml:space="preserve">0.0344979317454008</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.pvalue.scaled</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999999411302849</t>
+    <t xml:space="preserve">0.999997715882967</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.notclose.pvalue.scaled</t>
   </si>
   <si>
-    <t xml:space="preserve">0.00000000000000000000000000000302475784704118</t>
+    <t xml:space="preserve">0.00000000000000000000000000004223680892483</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.robust</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0251612689508134</t>
+    <t xml:space="preserve">0.0280422314826336</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.ci.lower.robust</t>
@@ -699,25 +702,25 @@
     <t xml:space="preserve">rmsea.ci.upper.robust</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0402110795813916</t>
+    <t xml:space="preserve">0.0424559268251324</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.pvalue.robust</t>
   </si>
   <si>
-    <t xml:space="preserve">0.998389571988889</t>
+    <t xml:space="preserve">0.996053526088797</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.notclose.pvalue.robust</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0000000000000298231737478243</t>
+    <t xml:space="preserve">0.000000000000291067427764857</t>
   </si>
   <si>
     <t xml:space="preserve">rmr</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159518667358083</t>
+    <t xml:space="preserve">0.157408421647743</t>
   </si>
   <si>
     <t xml:space="preserve">rmr_nomean</t>
@@ -726,7 +729,7 @@
     <t xml:space="preserve">srmr</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0455873403837201</t>
+    <t xml:space="preserve">0.0451771415711813</t>
   </si>
   <si>
     <t xml:space="preserve">srmr_bentler</t>
@@ -738,7 +741,7 @@
     <t xml:space="preserve">crmr</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0479257019589201</t>
+    <t xml:space="preserve">0.0474950066060649</t>
   </si>
   <si>
     <t xml:space="preserve">crmr_nomean</t>
@@ -747,7 +750,7 @@
     <t xml:space="preserve">srmr_mplus</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0455864964212271</t>
+    <t xml:space="preserve">0.0451768275152222</t>
   </si>
   <si>
     <t xml:space="preserve">srmr_mplus_nomean</t>
@@ -756,43 +759,43 @@
     <t xml:space="preserve">cn_05</t>
   </si>
   <si>
-    <t xml:space="preserve">257.11212514165</t>
+    <t xml:space="preserve">247.105675164239</t>
   </si>
   <si>
     <t xml:space="preserve">cn_01</t>
   </si>
   <si>
-    <t xml:space="preserve">276.422835791875</t>
+    <t xml:space="preserve">265.661905096134</t>
   </si>
   <si>
     <t xml:space="preserve">gfi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.933940512030019</t>
+    <t xml:space="preserve">0.929677293466605</t>
   </si>
   <si>
     <t xml:space="preserve">agfi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.908733602146736</t>
+    <t xml:space="preserve">0.902843629131494</t>
   </si>
   <si>
     <t xml:space="preserve">pgfi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.675995037278871</t>
+    <t xml:space="preserve">0.67290927908059</t>
   </si>
   <si>
     <t xml:space="preserve">mfi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.878084442973134</t>
+    <t xml:space="preserve">0.865505967685638</t>
   </si>
   <si>
     <t xml:space="preserve">ecvi</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04700727545011</t>
+    <t xml:space="preserve">1.0758642671541</t>
   </si>
 </sst>
 </file>
@@ -1198,22 +1201,22 @@
         <v>15</v>
       </c>
       <c r="E3" t="n">
-        <v>1.1746152846549</v>
+        <v>1.11618954295166</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0736378953456985</v>
+        <v>0.0453162068843256</v>
       </c>
       <c r="G3" t="n">
-        <v>15.9512337926089</v>
+        <v>24.6311335324436</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.03028766188</v>
+        <v>1.02737140954242</v>
       </c>
       <c r="J3" t="n">
-        <v>1.3189429074298</v>
+        <v>1.20500767636091</v>
       </c>
     </row>
     <row r="4">
@@ -1230,22 +1233,22 @@
         <v>17</v>
       </c>
       <c r="E4" t="n">
-        <v>1.14454101690102</v>
+        <v>0.994363596065147</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0752625308662098</v>
+        <v>0.0535093032104171</v>
       </c>
       <c r="G4" t="n">
-        <v>15.2073150308434</v>
+        <v>18.5830040087602</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.997029167017919</v>
+        <v>0.889487288934896</v>
       </c>
       <c r="J4" t="n">
-        <v>1.29205286678413</v>
+        <v>1.0992399031954</v>
       </c>
     </row>
     <row r="5">
@@ -1290,22 +1293,22 @@
         <v>22</v>
       </c>
       <c r="E6" t="n">
-        <v>0.923728951271419</v>
+        <v>0.920219695958858</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0606928874003533</v>
+        <v>0.0601157606223454</v>
       </c>
       <c r="G6" t="n">
-        <v>15.219723279569</v>
+        <v>15.307461578001</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.804773077848981</v>
+        <v>0.80239497023583</v>
       </c>
       <c r="J6" t="n">
-        <v>1.04268482469386</v>
+        <v>1.03804442168189</v>
       </c>
     </row>
     <row r="7">
@@ -1322,22 +1325,22 @@
         <v>24</v>
       </c>
       <c r="E7" t="n">
-        <v>0.834377686823765</v>
+        <v>0.833130026067053</v>
       </c>
       <c r="F7" t="n">
-        <v>0.065778766237812</v>
+        <v>0.0654490821854734</v>
       </c>
       <c r="G7" t="n">
-        <v>12.6846052996375</v>
+        <v>12.7294378812843</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.705453674050174</v>
+        <v>0.704852182162323</v>
       </c>
       <c r="J7" t="n">
-        <v>0.963301699597356</v>
+        <v>0.961407869971783</v>
       </c>
     </row>
     <row r="8">
@@ -1354,22 +1357,22 @@
         <v>26</v>
       </c>
       <c r="E8" t="n">
-        <v>0.896687271250645</v>
+        <v>0.891509834575523</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0640953230994174</v>
+        <v>0.0637342967792957</v>
       </c>
       <c r="G8" t="n">
-        <v>13.9899017258998</v>
+        <v>13.9879135665796</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.771062746398329</v>
+        <v>0.766592908308116</v>
       </c>
       <c r="J8" t="n">
-        <v>1.02231179610296</v>
+        <v>1.01642676084293</v>
       </c>
     </row>
     <row r="9">
@@ -1414,22 +1417,22 @@
         <v>31</v>
       </c>
       <c r="E10" t="n">
-        <v>1.31201703900138</v>
+        <v>1.30855908271267</v>
       </c>
       <c r="F10" t="n">
-        <v>0.129443707570686</v>
+        <v>0.128709722746316</v>
       </c>
       <c r="G10" t="n">
-        <v>10.1358116483562</v>
+        <v>10.1667461850712</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.0583120341375</v>
+        <v>1.05629266166976</v>
       </c>
       <c r="J10" t="n">
-        <v>1.56572204386526</v>
+        <v>1.56082550375559</v>
       </c>
     </row>
     <row r="11">
@@ -1446,22 +1449,22 @@
         <v>33</v>
       </c>
       <c r="E11" t="n">
-        <v>1.36154264730513</v>
+        <v>1.35959069072321</v>
       </c>
       <c r="F11" t="n">
-        <v>0.131278483937172</v>
+        <v>0.130608617291329</v>
       </c>
       <c r="G11" t="n">
-        <v>10.3714074574227</v>
+        <v>10.4096553421937</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.10424154684326</v>
+        <v>1.10360250476163</v>
       </c>
       <c r="J11" t="n">
-        <v>1.61884374776701</v>
+        <v>1.61557887668479</v>
       </c>
     </row>
     <row r="12">
@@ -1478,22 +1481,22 @@
         <v>35</v>
       </c>
       <c r="E12" t="n">
-        <v>0.964383690376535</v>
+        <v>0.964872096355252</v>
       </c>
       <c r="F12" t="n">
-        <v>0.121386451728462</v>
+        <v>0.121059816059809</v>
       </c>
       <c r="G12" t="n">
-        <v>7.94473910921984</v>
+        <v>7.97020950270207</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00000000000000199840144432528</v>
+        <v>0.00000000000000155431223447522</v>
       </c>
       <c r="I12" t="n">
-        <v>0.726470616777641</v>
+        <v>0.727599216902983</v>
       </c>
       <c r="J12" t="n">
-        <v>1.20229676397543</v>
+        <v>1.20214497580752</v>
       </c>
     </row>
     <row r="13">
@@ -1538,22 +1541,22 @@
         <v>40</v>
       </c>
       <c r="E14" t="n">
-        <v>1.11802459410572</v>
+        <v>1.1180366887653</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0462078058612323</v>
+        <v>0.0462002441016734</v>
       </c>
       <c r="G14" t="n">
-        <v>24.1955785016776</v>
+        <v>24.1998004665263</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.02745895881309</v>
+        <v>1.02748587424906</v>
       </c>
       <c r="J14" t="n">
-        <v>1.20859022939836</v>
+        <v>1.20858750328154</v>
       </c>
     </row>
     <row r="15">
@@ -1570,22 +1573,22 @@
         <v>42</v>
       </c>
       <c r="E15" t="n">
-        <v>1.11638460692263</v>
+        <v>1.11635636577021</v>
       </c>
       <c r="F15" t="n">
-        <v>0.045142579292663</v>
+        <v>0.0451471385187348</v>
       </c>
       <c r="G15" t="n">
-        <v>24.7301909730283</v>
+        <v>24.7270680357063</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.02790677733976</v>
+        <v>1.02786960026845</v>
       </c>
       <c r="J15" t="n">
-        <v>1.20486243650549</v>
+        <v>1.20484313127197</v>
       </c>
     </row>
     <row r="16">
@@ -1630,22 +1633,22 @@
         <v>47</v>
       </c>
       <c r="E17" t="n">
-        <v>1.09845725000274</v>
+        <v>1.09847689750448</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0934021227420298</v>
+        <v>0.0934109956819151</v>
       </c>
       <c r="G17" t="n">
-        <v>11.7605169749364</v>
+        <v>11.759610198836</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.915392453348767</v>
+        <v>0.915394710207899</v>
       </c>
       <c r="J17" t="n">
-        <v>1.2815220466567</v>
+        <v>1.28155908480106</v>
       </c>
     </row>
     <row r="18">
@@ -1662,22 +1665,22 @@
         <v>49</v>
       </c>
       <c r="E18" t="n">
-        <v>1.00634130455741</v>
+        <v>1.0063459545052</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0857670017144598</v>
+        <v>0.0857724327237968</v>
       </c>
       <c r="G18" t="n">
-        <v>11.7334322576389</v>
+        <v>11.732743523153</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.838241070135086</v>
+        <v>0.838235075500174</v>
       </c>
       <c r="J18" t="n">
-        <v>1.17444153897974</v>
+        <v>1.17445683351023</v>
       </c>
     </row>
     <row r="19">
@@ -1694,22 +1697,22 @@
         <v>11</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0957745136883729</v>
+        <v>0.0947036360071166</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0555345196421982</v>
+        <v>0.0506231509643931</v>
       </c>
       <c r="G19" t="n">
-        <v>1.72459425786764</v>
+        <v>1.87075743415752</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0846006189887905</v>
+        <v>0.0613787100003762</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.0130711447090678</v>
+        <v>-0.00451591666702784</v>
       </c>
       <c r="J19" t="n">
-        <v>0.204620172085814</v>
+        <v>0.193923188681261</v>
       </c>
     </row>
     <row r="20">
@@ -1726,22 +1729,22 @@
         <v>53</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0488871322609109</v>
+        <v>0.050256721299691</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0476371075389296</v>
+        <v>0.0477215218875298</v>
       </c>
       <c r="G20" t="n">
-        <v>1.02624056720824</v>
+        <v>1.05312486508993</v>
       </c>
       <c r="H20" t="n">
-        <v>0.304778203870268</v>
+        <v>0.292283768142445</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.0444798828430526</v>
+        <v>-0.0432757428873074</v>
       </c>
       <c r="J20" t="n">
-        <v>0.142254147364874</v>
+        <v>0.143789185486689</v>
       </c>
     </row>
     <row r="21">
@@ -1758,22 +1761,22 @@
         <v>44</v>
       </c>
       <c r="E21" t="n">
-        <v>0.00234440459538701</v>
+        <v>0.00293350072056311</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0341984411067395</v>
+        <v>0.0343229764379061</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0685529667293811</v>
+        <v>0.0854675504576393</v>
       </c>
       <c r="H21" t="n">
-        <v>0.945345457852603</v>
+        <v>0.931889692035302</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.0646833083012365</v>
+        <v>-0.0643382969399497</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0693721174920105</v>
+        <v>0.070205298381076</v>
       </c>
     </row>
     <row r="22">
@@ -1790,22 +1793,22 @@
         <v>56</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.0204980740881821</v>
+        <v>-0.0241064411320513</v>
       </c>
       <c r="F22" t="n">
-        <v>0.131603242579693</v>
+        <v>0.130803286530351</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.155756603609288</v>
+        <v>-0.184295377979343</v>
       </c>
       <c r="H22" t="n">
-        <v>0.876224878350103</v>
+        <v>0.853781739664426</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.278435689793068</v>
+        <v>-0.280476171791012</v>
       </c>
       <c r="J22" t="n">
-        <v>0.237439541616704</v>
+        <v>0.232263289526909</v>
       </c>
     </row>
     <row r="23">
@@ -1822,22 +1825,22 @@
         <v>37</v>
       </c>
       <c r="E23" t="n">
-        <v>0.131130711580993</v>
+        <v>0.132520681075404</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0606772581142429</v>
+        <v>0.0605879319575379</v>
       </c>
       <c r="G23" t="n">
-        <v>2.16111794857475</v>
+        <v>2.18724549252281</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0306862294450059</v>
+        <v>0.0287246074939511</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0122054709964362</v>
+        <v>0.0137705165408661</v>
       </c>
       <c r="J23" t="n">
-        <v>0.25005595216555</v>
+        <v>0.251270845609941</v>
       </c>
     </row>
     <row r="24">
@@ -1854,22 +1857,22 @@
         <v>11</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.201942262628962</v>
+        <v>-0.191986858328428</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0679151726267343</v>
+        <v>0.0592533829444547</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.97344841835047</v>
+        <v>-3.240099531674</v>
       </c>
       <c r="H24" t="n">
-        <v>0.00294473896645941</v>
+        <v>0.00119487983220967</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.335053554981182</v>
+        <v>-0.308121354861719</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.0688309702767423</v>
+        <v>-0.075852361795137</v>
       </c>
     </row>
     <row r="25">
@@ -1886,22 +1889,22 @@
         <v>53</v>
       </c>
       <c r="E25" t="n">
-        <v>0.06008800215859</v>
+        <v>0.057657760663119</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0628186787623329</v>
+        <v>0.0630874636288143</v>
       </c>
       <c r="G25" t="n">
-        <v>0.956530817623941</v>
+        <v>0.913933725444379</v>
       </c>
       <c r="H25" t="n">
-        <v>0.338804122332123</v>
+        <v>0.360751671099616</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.0630343457719737</v>
+        <v>-0.0659913959253375</v>
       </c>
       <c r="J25" t="n">
-        <v>0.183210350089154</v>
+        <v>0.181306917251575</v>
       </c>
     </row>
     <row r="26">
@@ -1918,22 +1921,22 @@
         <v>44</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0179808326409576</v>
+        <v>0.0170008128897389</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0409603105534582</v>
+        <v>0.0411772347074365</v>
       </c>
       <c r="G26" t="n">
-        <v>0.438981843594433</v>
+        <v>0.412869222776357</v>
       </c>
       <c r="H26" t="n">
-        <v>0.660674692296758</v>
+        <v>0.679702431343227</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.0622999008393964</v>
+        <v>-0.0637050841197893</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0982615661213115</v>
+        <v>0.0977067098992671</v>
       </c>
     </row>
     <row r="27">
@@ -1950,22 +1953,22 @@
         <v>56</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.035635588269913</v>
+        <v>-0.0343494205411991</v>
       </c>
       <c r="F27" t="n">
-        <v>0.16902222197602</v>
+        <v>0.168710394340426</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.21083374631632</v>
+        <v>-0.203599906665433</v>
       </c>
       <c r="H27" t="n">
-        <v>0.83301700461807</v>
+        <v>0.83866616608541</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.366913055929847</v>
+        <v>-0.365015717265984</v>
       </c>
       <c r="J27" t="n">
-        <v>0.295641879390021</v>
+        <v>0.296316876183586</v>
       </c>
     </row>
     <row r="28">
@@ -1982,22 +1985,22 @@
         <v>37</v>
       </c>
       <c r="E28" t="n">
-        <v>0.291331801461286</v>
+        <v>0.289317054095292</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0742565592144643</v>
+        <v>0.0739952188117097</v>
       </c>
       <c r="G28" t="n">
-        <v>3.92331404179226</v>
+        <v>3.90994254414594</v>
       </c>
       <c r="H28" t="n">
-        <v>0.000087339184248636</v>
+        <v>0.0000923180771716936</v>
       </c>
       <c r="I28" t="n">
-        <v>0.14579161978507</v>
+        <v>0.14428909019618</v>
       </c>
       <c r="J28" t="n">
-        <v>0.436871983137502</v>
+        <v>0.434345017994404</v>
       </c>
     </row>
     <row r="29">
@@ -2014,22 +2017,22 @@
         <v>37</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0970370228098835</v>
+        <v>0.0970420939855181</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0691770976770504</v>
+        <v>0.0691754760691913</v>
       </c>
       <c r="G29" t="n">
-        <v>1.40273336217278</v>
+        <v>1.40283955383919</v>
       </c>
       <c r="H29" t="n">
-        <v>0.160696364822274</v>
+        <v>0.160664689137032</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.0385475971921447</v>
+        <v>-0.0385393477235092</v>
       </c>
       <c r="J29" t="n">
-        <v>0.232621642811912</v>
+        <v>0.232623535694545</v>
       </c>
     </row>
     <row r="30">
@@ -2046,22 +2049,22 @@
         <v>28</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.482515706444785</v>
+        <v>-0.484418050675948</v>
       </c>
       <c r="F30" t="n">
-        <v>0.125811001528456</v>
+        <v>0.126338170438436</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.83524255099145</v>
+        <v>-3.8342968636862</v>
       </c>
       <c r="H30" t="n">
-        <v>0.000125440441086422</v>
+        <v>0.000125923987378096</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.729100738299472</v>
+        <v>-0.732036314607966</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.235930674590098</v>
+        <v>-0.23679978674393</v>
       </c>
     </row>
     <row r="31">
@@ -2078,22 +2081,22 @@
         <v>19</v>
       </c>
       <c r="E31" t="n">
-        <v>0.605623463671156</v>
+        <v>0.6067002851844</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0927630279157897</v>
+        <v>0.0936881709373316</v>
       </c>
       <c r="G31" t="n">
-        <v>6.52871599039372</v>
+        <v>6.4757405242784</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0000000000663358257213531</v>
+        <v>0.0000000000943480849002754</v>
       </c>
       <c r="I31" t="n">
-        <v>0.423811269859324</v>
+        <v>0.423074844369798</v>
       </c>
       <c r="J31" t="n">
-        <v>0.787435657482987</v>
+        <v>0.790325725999002</v>
       </c>
     </row>
     <row r="32">
@@ -2110,22 +2113,22 @@
         <v>11</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.111843692568105</v>
+        <v>-0.0898684180875942</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0773372809048387</v>
+        <v>0.0702226841141359</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.44618082326589</v>
+        <v>-1.27976335882473</v>
       </c>
       <c r="H32" t="n">
-        <v>0.148126490958396</v>
+        <v>0.200628373999058</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.263421977803846</v>
+        <v>-0.227502349849033</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0397345926676362</v>
+        <v>0.0477655136738451</v>
       </c>
     </row>
     <row r="33">
@@ -2142,22 +2145,22 @@
         <v>37</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.172177596702498</v>
+        <v>-0.174310753219356</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0840722531320957</v>
+        <v>0.083868943871247</v>
       </c>
       <c r="G33" t="n">
-        <v>-2.0479717182311</v>
+        <v>-2.07837067182999</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0405627706596332</v>
+        <v>0.0376752318124214</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.33695618494054</v>
+        <v>-0.338690862628411</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.00739900846445551</v>
+        <v>-0.00993064381030026</v>
       </c>
     </row>
     <row r="34">
@@ -2174,22 +2177,22 @@
         <v>56</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.050703449375488</v>
+        <v>-0.0603075076761841</v>
       </c>
       <c r="F34" t="n">
-        <v>0.176892265570468</v>
+        <v>0.177102512937642</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.286634631604565</v>
+        <v>-0.340523161844792</v>
       </c>
       <c r="H34" t="n">
-        <v>0.774392094393066</v>
+        <v>0.733462583230981</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.3974059190373</v>
+        <v>-0.407422054605502</v>
       </c>
       <c r="J34" t="n">
-        <v>0.295999020286324</v>
+        <v>0.286807039253133</v>
       </c>
     </row>
     <row r="35">
@@ -2206,22 +2209,22 @@
         <v>56</v>
       </c>
       <c r="E35" t="n">
-        <v>0.619498419340911</v>
+        <v>0.658961019260787</v>
       </c>
       <c r="F35" t="n">
-        <v>0.161859990958153</v>
+        <v>0.173115458166665</v>
       </c>
       <c r="G35" t="n">
-        <v>3.82737213608936</v>
+        <v>3.80648283081907</v>
       </c>
       <c r="H35" t="n">
-        <v>0.000129518626064362</v>
+        <v>0.000140957073094805</v>
       </c>
       <c r="I35" t="n">
-        <v>0.302258666524953</v>
+        <v>0.319660956086974</v>
       </c>
       <c r="J35" t="n">
-        <v>0.93673817215687</v>
+        <v>0.998261082434601</v>
       </c>
     </row>
     <row r="36">
@@ -2238,22 +2241,22 @@
         <v>37</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0366129944749104</v>
+        <v>0.0256411093001312</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0719516752767211</v>
+        <v>0.0781887727269423</v>
       </c>
       <c r="G36" t="n">
-        <v>0.508855344008314</v>
+        <v>0.327938505822023</v>
       </c>
       <c r="H36" t="n">
-        <v>0.610853623133136</v>
+        <v>0.74295815876053</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.104409697694784</v>
+        <v>-0.127606069240063</v>
       </c>
       <c r="J36" t="n">
-        <v>0.177635686644605</v>
+        <v>0.178888287840326</v>
       </c>
     </row>
     <row r="37">
@@ -2270,22 +2273,22 @@
         <v>53</v>
       </c>
       <c r="E37" t="n">
-        <v>0.000923865381765807</v>
+        <v>-0.0117594570957004</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0586541376830273</v>
+        <v>0.0607791331020874</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0157510692043324</v>
+        <v>-0.193478526190044</v>
       </c>
       <c r="H37" t="n">
-        <v>0.987432984705958</v>
+        <v>0.846584221934723</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.114036132021221</v>
+        <v>-0.130884368987358</v>
       </c>
       <c r="J37" t="n">
-        <v>0.115883862784753</v>
+        <v>0.107365454795957</v>
       </c>
     </row>
     <row r="38">
@@ -2302,22 +2305,22 @@
         <v>28</v>
       </c>
       <c r="E38" t="n">
-        <v>0.763645480958258</v>
+        <v>0.772076233965595</v>
       </c>
       <c r="F38" t="n">
-        <v>0.14774662939464</v>
+        <v>0.14807934932388</v>
       </c>
       <c r="G38" t="n">
-        <v>5.16861524413202</v>
+        <v>5.21393588971616</v>
       </c>
       <c r="H38" t="n">
-        <v>0.000000235834846540328</v>
+        <v>0.000000184875384556804</v>
       </c>
       <c r="I38" t="n">
-        <v>0.474067408507578</v>
+        <v>0.481846042436665</v>
       </c>
       <c r="J38" t="n">
-        <v>1.05322355340894</v>
+        <v>1.06230642549453</v>
       </c>
     </row>
     <row r="39">
@@ -2334,22 +2337,22 @@
         <v>13</v>
       </c>
       <c r="E39" t="n">
-        <v>1.07259517043227</v>
+        <v>0.989355387322145</v>
       </c>
       <c r="F39" t="n">
-        <v>0.195007731906119</v>
+        <v>0.182578302831504</v>
       </c>
       <c r="G39" t="n">
-        <v>5.50026996339117</v>
+        <v>5.41880043783292</v>
       </c>
       <c r="H39" t="n">
-        <v>0.000000037921019213627</v>
+        <v>0.0000000600002447725956</v>
       </c>
       <c r="I39" t="n">
-        <v>0.69038703918943</v>
+        <v>0.63150848941395</v>
       </c>
       <c r="J39" t="n">
-        <v>1.4548033016751</v>
+        <v>1.34720228523034</v>
       </c>
     </row>
     <row r="40">
@@ -2366,22 +2369,22 @@
         <v>15</v>
       </c>
       <c r="E40" t="n">
-        <v>0.633680656854436</v>
+        <v>0.36476414048059</v>
       </c>
       <c r="F40" t="n">
-        <v>0.193699716144424</v>
+        <v>0.143116648325918</v>
       </c>
       <c r="G40" t="n">
-        <v>3.27145888216976</v>
+        <v>2.5487191374823</v>
       </c>
       <c r="H40" t="n">
-        <v>0.00106994145860817</v>
+        <v>0.0108119335801993</v>
       </c>
       <c r="I40" t="n">
-        <v>0.254036189395734</v>
+        <v>0.084260664173707</v>
       </c>
       <c r="J40" t="n">
-        <v>1.01332512431314</v>
+        <v>0.645267616787473</v>
       </c>
     </row>
     <row r="41">
@@ -2398,22 +2401,22 @@
         <v>17</v>
       </c>
       <c r="E41" t="n">
-        <v>0.764749639141805</v>
+        <v>0.622033938182962</v>
       </c>
       <c r="F41" t="n">
-        <v>0.153005156152052</v>
+        <v>0.137107697038152</v>
       </c>
       <c r="G41" t="n">
-        <v>4.99819521364246</v>
+        <v>4.53682726513794</v>
       </c>
       <c r="H41" t="n">
-        <v>0.000000578693849062617</v>
+        <v>0.00000571068425680998</v>
       </c>
       <c r="I41" t="n">
-        <v>0.464865043634855</v>
+        <v>0.353307789984955</v>
       </c>
       <c r="J41" t="n">
-        <v>1.06463423464875</v>
+        <v>0.890760086380969</v>
       </c>
     </row>
     <row r="42">
@@ -2430,22 +2433,22 @@
         <v>20</v>
       </c>
       <c r="E42" t="n">
-        <v>1.08473873812497</v>
+        <v>1.07379368709727</v>
       </c>
       <c r="F42" t="n">
-        <v>0.159547567254841</v>
+        <v>0.157682653488819</v>
       </c>
       <c r="G42" t="n">
-        <v>6.79884223112188</v>
+        <v>6.80984029212457</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0000000000105462305555193</v>
+        <v>0.00000000000977062875051615</v>
       </c>
       <c r="I42" t="n">
-        <v>0.772031252484502</v>
+        <v>0.764741365272481</v>
       </c>
       <c r="J42" t="n">
-        <v>1.39744622376544</v>
+        <v>1.38284600892207</v>
       </c>
     </row>
     <row r="43">
@@ -2462,22 +2465,22 @@
         <v>22</v>
       </c>
       <c r="E43" t="n">
-        <v>1.02240060943236</v>
+        <v>1.02639041513449</v>
       </c>
       <c r="F43" t="n">
-        <v>0.141492691010818</v>
+        <v>0.141068321981726</v>
       </c>
       <c r="G43" t="n">
-        <v>7.22581924287659</v>
+        <v>7.27583911622234</v>
       </c>
       <c r="H43" t="n">
-        <v>0.000000000000498046048846845</v>
+        <v>0.000000000000344169137633799</v>
       </c>
       <c r="I43" t="n">
-        <v>0.745080030975502</v>
+        <v>0.749901584690809</v>
       </c>
       <c r="J43" t="n">
-        <v>1.29972118788922</v>
+        <v>1.30287924557818</v>
       </c>
     </row>
     <row r="44">
@@ -2494,22 +2497,22 @@
         <v>24</v>
       </c>
       <c r="E44" t="n">
-        <v>1.75650623656538</v>
+        <v>1.75317697636268</v>
       </c>
       <c r="F44" t="n">
-        <v>0.20573515845951</v>
+        <v>0.206136224602773</v>
       </c>
       <c r="G44" t="n">
-        <v>8.53770570726765</v>
+        <v>8.50494365918012</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.3532727356311</v>
+        <v>1.34915740023219</v>
       </c>
       <c r="J44" t="n">
-        <v>2.15973973749966</v>
+        <v>2.15719655249317</v>
       </c>
     </row>
     <row r="45">
@@ -2526,22 +2529,22 @@
         <v>26</v>
       </c>
       <c r="E45" t="n">
-        <v>1.42947408934029</v>
+        <v>1.43974807978318</v>
       </c>
       <c r="F45" t="n">
-        <v>0.166365977457931</v>
+        <v>0.167364956734126</v>
       </c>
       <c r="G45" t="n">
-        <v>8.59234629088607</v>
+        <v>8.60244646118088</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.10340276526994</v>
+        <v>1.11171879231018</v>
       </c>
       <c r="J45" t="n">
-        <v>1.75554541341064</v>
+        <v>1.76777736725617</v>
       </c>
     </row>
     <row r="46">
@@ -2558,22 +2561,22 @@
         <v>29</v>
       </c>
       <c r="E46" t="n">
-        <v>1.70223719160349</v>
+        <v>1.69969085324338</v>
       </c>
       <c r="F46" t="n">
-        <v>0.185612659882644</v>
+        <v>0.185210855453633</v>
       </c>
       <c r="G46" t="n">
-        <v>9.17091103957969</v>
+        <v>9.17705848871742</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1.33844306315883</v>
+        <v>1.3366842470084</v>
       </c>
       <c r="J46" t="n">
-        <v>2.06603132004816</v>
+        <v>2.06269745947835</v>
       </c>
     </row>
     <row r="47">
@@ -2590,22 +2593,22 @@
         <v>31</v>
       </c>
       <c r="E47" t="n">
-        <v>1.81259086864268</v>
+        <v>1.81864636299544</v>
       </c>
       <c r="F47" t="n">
-        <v>0.257816828738159</v>
+        <v>0.258486282613526</v>
       </c>
       <c r="G47" t="n">
-        <v>7.03053744596154</v>
+        <v>7.03575580339236</v>
       </c>
       <c r="H47" t="n">
-        <v>0.00000000000205746530923534</v>
+        <v>0.0000000000019817480989559</v>
       </c>
       <c r="I47" t="n">
-        <v>1.30727916970756</v>
+        <v>1.31202255857528</v>
       </c>
       <c r="J47" t="n">
-        <v>2.3179025675778</v>
+        <v>2.32527016741559</v>
       </c>
     </row>
     <row r="48">
@@ -2622,22 +2625,22 @@
         <v>33</v>
       </c>
       <c r="E48" t="n">
-        <v>1.52515654397185</v>
+        <v>1.52655140955136</v>
       </c>
       <c r="F48" t="n">
-        <v>0.191646409795949</v>
+        <v>0.191492966205037</v>
       </c>
       <c r="G48" t="n">
-        <v>7.95817957453898</v>
+        <v>7.97184063626043</v>
       </c>
       <c r="H48" t="n">
-        <v>0.00000000000000177635683940025</v>
+        <v>0.00000000000000155431223447522</v>
       </c>
       <c r="I48" t="n">
-        <v>1.14953648300538</v>
+        <v>1.15123209249674</v>
       </c>
       <c r="J48" t="n">
-        <v>1.90077660493831</v>
+        <v>1.90187072660598</v>
       </c>
     </row>
     <row r="49">
@@ -2654,22 +2657,22 @@
         <v>35</v>
       </c>
       <c r="E49" t="n">
-        <v>2.09102288026394</v>
+        <v>2.08756207362241</v>
       </c>
       <c r="F49" t="n">
-        <v>0.210185017364217</v>
+        <v>0.210182685774101</v>
       </c>
       <c r="G49" t="n">
-        <v>9.94848684499966</v>
+        <v>9.93213149757767</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1.67906781614015</v>
+        <v>1.67561157933128</v>
       </c>
       <c r="J49" t="n">
-        <v>2.50297794438773</v>
+        <v>2.49951256791355</v>
       </c>
     </row>
     <row r="50">
@@ -2686,22 +2689,22 @@
         <v>38</v>
       </c>
       <c r="E50" t="n">
-        <v>0.588716303089983</v>
+        <v>0.588699221162112</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0797979879459982</v>
+        <v>0.0797904974811487</v>
       </c>
       <c r="G50" t="n">
-        <v>7.37758329806994</v>
+        <v>7.3780617961581</v>
       </c>
       <c r="H50" t="n">
-        <v>0.000000000000161204383175573</v>
+        <v>0.000000000000160538249360798</v>
       </c>
       <c r="I50" t="n">
-        <v>0.432315120677065</v>
+        <v>0.432312719790527</v>
       </c>
       <c r="J50" t="n">
-        <v>0.7451174855029</v>
+        <v>0.745085722533698</v>
       </c>
     </row>
     <row r="51">
@@ -2718,22 +2721,22 @@
         <v>40</v>
       </c>
       <c r="E51" t="n">
-        <v>0.23811746994591</v>
+        <v>0.238056520452414</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0550951872611766</v>
+        <v>0.0551625675420158</v>
       </c>
       <c r="G51" t="n">
-        <v>4.32192867985227</v>
+        <v>4.31554459953468</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0000154671189802613</v>
+        <v>0.0000159209902179658</v>
       </c>
       <c r="I51" t="n">
-        <v>0.130132887192514</v>
+        <v>0.129939874775304</v>
       </c>
       <c r="J51" t="n">
-        <v>0.346102052699306</v>
+        <v>0.346173166129523</v>
       </c>
     </row>
     <row r="52">
@@ -2750,22 +2753,22 @@
         <v>42</v>
       </c>
       <c r="E52" t="n">
-        <v>0.336705632224643</v>
+        <v>0.336783081187677</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0603059488101985</v>
+        <v>0.0603907096374713</v>
       </c>
       <c r="G52" t="n">
-        <v>5.58329051888993</v>
+        <v>5.57673660749151</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0000000236010009313503</v>
+        <v>0.0000000245072504512223</v>
       </c>
       <c r="I52" t="n">
-        <v>0.218508144503138</v>
+        <v>0.218419465297417</v>
       </c>
       <c r="J52" t="n">
-        <v>0.454903119946148</v>
+        <v>0.455146697077936</v>
       </c>
     </row>
     <row r="53">
@@ -2782,22 +2785,22 @@
         <v>45</v>
       </c>
       <c r="E53" t="n">
-        <v>1.58338097663651</v>
+        <v>1.58347501038076</v>
       </c>
       <c r="F53" t="n">
-        <v>0.491529407820384</v>
+        <v>0.491624321408062</v>
       </c>
       <c r="G53" t="n">
-        <v>3.22133518655126</v>
+        <v>3.22090454322018</v>
       </c>
       <c r="H53" t="n">
-        <v>0.00127594825975574</v>
+        <v>0.00127786702588284</v>
       </c>
       <c r="I53" t="n">
-        <v>0.620001039966255</v>
+        <v>0.619909046497018</v>
       </c>
       <c r="J53" t="n">
-        <v>2.54676091330676</v>
+        <v>2.54704097426451</v>
       </c>
     </row>
     <row r="54">
@@ -2814,22 +2817,22 @@
         <v>47</v>
       </c>
       <c r="E54" t="n">
-        <v>1.34787368585131</v>
+        <v>1.34773766487744</v>
       </c>
       <c r="F54" t="n">
-        <v>0.568946093344735</v>
+        <v>0.568909259240956</v>
       </c>
       <c r="G54" t="n">
-        <v>2.36907099216975</v>
+        <v>2.36898528717145</v>
       </c>
       <c r="H54" t="n">
-        <v>0.0178328301282524</v>
+        <v>0.0178369630005324</v>
       </c>
       <c r="I54" t="n">
-        <v>0.23275983375087</v>
+        <v>0.232696006293801</v>
       </c>
       <c r="J54" t="n">
-        <v>2.46298753795176</v>
+        <v>2.46277932346107</v>
       </c>
     </row>
     <row r="55">
@@ -2846,22 +2849,22 @@
         <v>49</v>
       </c>
       <c r="E55" t="n">
-        <v>1.59912398664406</v>
+        <v>1.5991611989965</v>
       </c>
       <c r="F55" t="n">
-        <v>0.385610213853376</v>
+        <v>0.385526303030698</v>
       </c>
       <c r="G55" t="n">
-        <v>4.14699592799715</v>
+        <v>4.14799505617432</v>
       </c>
       <c r="H55" t="n">
-        <v>0.0000336866051302565</v>
+        <v>0.0000335399640094547</v>
       </c>
       <c r="I55" t="n">
-        <v>0.843341855420654</v>
+        <v>0.843543529963457</v>
       </c>
       <c r="J55" t="n">
-        <v>2.35490611786746</v>
+        <v>2.35477886802954</v>
       </c>
     </row>
     <row r="56">
@@ -2878,22 +2881,22 @@
         <v>53</v>
       </c>
       <c r="E56" t="n">
-        <v>2.01880691324707</v>
+        <v>2.01880274763058</v>
       </c>
       <c r="F56" t="n">
-        <v>0.133142861579311</v>
+        <v>0.133143124742768</v>
       </c>
       <c r="G56" t="n">
-        <v>15.1627123624986</v>
+        <v>15.16265110595</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1.75785169975301</v>
+        <v>1.75784701834563</v>
       </c>
       <c r="J56" t="n">
-        <v>2.27976212674112</v>
+        <v>2.27975847691553</v>
       </c>
     </row>
     <row r="57">
@@ -2910,22 +2913,22 @@
         <v>65</v>
       </c>
       <c r="E57" t="n">
-        <v>2.352333869297</v>
+        <v>2.35768491540714</v>
       </c>
       <c r="F57" t="n">
-        <v>0.175710228481168</v>
+        <v>0.175639423107409</v>
       </c>
       <c r="G57" t="n">
-        <v>13.3875750411941</v>
+        <v>13.4234380510652</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>2.00794814975861</v>
+        <v>2.01343797185122</v>
       </c>
       <c r="J57" t="n">
-        <v>2.6967195888354</v>
+        <v>2.70193185896305</v>
       </c>
     </row>
     <row r="58">
@@ -2942,22 +2945,22 @@
         <v>11</v>
       </c>
       <c r="E58" t="n">
-        <v>1.96394333549974</v>
+        <v>2.37878146824327</v>
       </c>
       <c r="F58" t="n">
-        <v>0.262082271899415</v>
+        <v>0.23388964741774</v>
       </c>
       <c r="G58" t="n">
-        <v>7.49361382311846</v>
+        <v>10.1705291127941</v>
       </c>
       <c r="H58" t="n">
-        <v>0.0000000000000670574706873595</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1.45027152159046</v>
+        <v>1.92036618294773</v>
       </c>
       <c r="J58" t="n">
-        <v>2.47761514940903</v>
+        <v>2.83719675353881</v>
       </c>
     </row>
     <row r="59">
@@ -2974,22 +2977,22 @@
         <v>19</v>
       </c>
       <c r="E59" t="n">
-        <v>1.82380035322416</v>
+        <v>1.82671903750957</v>
       </c>
       <c r="F59" t="n">
-        <v>0.205254112169107</v>
+        <v>0.203842971775699</v>
       </c>
       <c r="G59" t="n">
-        <v>8.88557278560904</v>
+        <v>8.96140309178587</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1.42150968569397</v>
+        <v>1.42719415432758</v>
       </c>
       <c r="J59" t="n">
-        <v>2.22609102075436</v>
+        <v>2.22624392069155</v>
       </c>
     </row>
     <row r="60">
@@ -3006,22 +3009,22 @@
         <v>28</v>
       </c>
       <c r="E60" t="n">
-        <v>1.09817404462164</v>
+        <v>1.09729634222603</v>
       </c>
       <c r="F60" t="n">
-        <v>0.194366021671502</v>
+        <v>0.193952000592763</v>
       </c>
       <c r="G60" t="n">
-        <v>5.65003098369564</v>
+        <v>5.65756650548812</v>
       </c>
       <c r="H60" t="n">
-        <v>0.0000000160418920369665</v>
+        <v>0.0000000153534329694338</v>
       </c>
       <c r="I60" t="n">
-        <v>0.717223642327169</v>
+        <v>0.71715740633472</v>
       </c>
       <c r="J60" t="n">
-        <v>1.47912444691612</v>
+        <v>1.47743527811733</v>
       </c>
     </row>
     <row r="61">
@@ -3038,22 +3041,22 @@
         <v>37</v>
       </c>
       <c r="E61" t="n">
-        <v>1.53600066959348</v>
+        <v>1.53601302377311</v>
       </c>
       <c r="F61" t="n">
-        <v>0.156592907029932</v>
+        <v>0.156576177190032</v>
       </c>
       <c r="G61" t="n">
-        <v>9.80887767349437</v>
+        <v>9.81000463377577</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1.22908421158038</v>
+        <v>1.22912935564368</v>
       </c>
       <c r="J61" t="n">
-        <v>1.84291712760657</v>
+        <v>1.84289669190253</v>
       </c>
     </row>
     <row r="62">
@@ -3070,22 +3073,22 @@
         <v>44</v>
       </c>
       <c r="E62" t="n">
-        <v>5.46262096071332</v>
+        <v>5.46253427261919</v>
       </c>
       <c r="F62" t="n">
-        <v>1.03092848183257</v>
+        <v>1.03095857539492</v>
       </c>
       <c r="G62" t="n">
-        <v>5.29873900758177</v>
+        <v>5.29850025305499</v>
       </c>
       <c r="H62" t="n">
-        <v>0.000000116605168631878</v>
+        <v>0.000000116757715273863</v>
       </c>
       <c r="I62" t="n">
-        <v>3.44203826568492</v>
+        <v>3.44189259529243</v>
       </c>
       <c r="J62" t="n">
-        <v>7.48320365574172</v>
+        <v>7.48317594994595</v>
       </c>
     </row>
     <row r="63">
@@ -3102,22 +3105,22 @@
         <v>44</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.109168772946816</v>
+        <v>-0.10905813510166</v>
       </c>
       <c r="F63" t="n">
-        <v>0.197599865916907</v>
+        <v>0.197637049670302</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.552473922187389</v>
+        <v>-0.551810175691202</v>
       </c>
       <c r="H63" t="n">
-        <v>0.580623696362353</v>
+        <v>0.581078414844641</v>
       </c>
       <c r="I63" t="n">
-        <v>-0.496457393493898</v>
+        <v>-0.496419634466205</v>
       </c>
       <c r="J63" t="n">
-        <v>0.278119847600266</v>
+        <v>0.278303364262885</v>
       </c>
     </row>
     <row r="64">
@@ -3208,22 +3211,22 @@
         <v>13</v>
       </c>
       <c r="E2" t="n">
-        <v>0.811058376677245</v>
+        <v>0.845890322562334</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0382964038180615</v>
+        <v>0.0288305610550499</v>
       </c>
       <c r="G2" t="n">
-        <v>21.1784474733038</v>
+        <v>29.3400576196615</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.735998804456442</v>
+        <v>0.789383461240353</v>
       </c>
       <c r="J2" t="n">
-        <v>0.886117948898048</v>
+        <v>0.902397183884315</v>
       </c>
     </row>
     <row r="3">
@@ -3240,22 +3243,22 @@
         <v>15</v>
       </c>
       <c r="E3" t="n">
-        <v>0.90434231462765</v>
+        <v>0.945904095593244</v>
       </c>
       <c r="F3" t="n">
-        <v>0.030459231637021</v>
+        <v>0.0216187326624265</v>
       </c>
       <c r="G3" t="n">
-        <v>29.6902536940061</v>
+        <v>43.7539105720676</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.844643317622325</v>
+        <v>0.903532158183488</v>
       </c>
       <c r="J3" t="n">
-        <v>0.964041311632974</v>
+        <v>0.988276033002999</v>
       </c>
     </row>
     <row r="4">
@@ -3272,22 +3275,22 @@
         <v>17</v>
       </c>
       <c r="E4" t="n">
-        <v>0.882806855325801</v>
+        <v>0.893426708282591</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0255887076423281</v>
+        <v>0.0260943042063114</v>
       </c>
       <c r="G4" t="n">
-        <v>34.4998609412179</v>
+        <v>34.2383801928123</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.832653909935913</v>
+        <v>0.842282811836588</v>
       </c>
       <c r="J4" t="n">
-        <v>0.93295980071569</v>
+        <v>0.944570604728593</v>
       </c>
     </row>
     <row r="5">
@@ -3304,22 +3307,22 @@
         <v>20</v>
       </c>
       <c r="E5" t="n">
-        <v>0.808486407201939</v>
+        <v>0.810635209523379</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0313512076318447</v>
+        <v>0.0309363073139411</v>
       </c>
       <c r="G5" t="n">
-        <v>25.7880467220257</v>
+        <v>26.2033603848406</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.747039169371686</v>
+        <v>0.750001161373391</v>
       </c>
       <c r="J5" t="n">
-        <v>0.869933645032192</v>
+        <v>0.871269257673366</v>
       </c>
     </row>
     <row r="6">
@@ -3336,22 +3339,22 @@
         <v>22</v>
       </c>
       <c r="E6" t="n">
-        <v>0.794227079954247</v>
+        <v>0.793310344893648</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0320321619943114</v>
+        <v>0.0319926819965609</v>
       </c>
       <c r="G6" t="n">
-        <v>24.7946760538765</v>
+        <v>24.7966189573893</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.731445196098444</v>
+        <v>0.730605840411546</v>
       </c>
       <c r="J6" t="n">
-        <v>0.85700896381005</v>
+        <v>0.85601484937575</v>
       </c>
     </row>
     <row r="7">
@@ -3368,22 +3371,22 @@
         <v>24</v>
       </c>
       <c r="E7" t="n">
-        <v>0.669282281959406</v>
+        <v>0.670051946004484</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0431682132791232</v>
+        <v>0.0432113901859388</v>
       </c>
       <c r="G7" t="n">
-        <v>15.5040533559234</v>
+        <v>15.5063732761489</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.58467413865538</v>
+        <v>0.585359177518136</v>
       </c>
       <c r="J7" t="n">
-        <v>0.753890425263431</v>
+        <v>0.754744714490831</v>
       </c>
     </row>
     <row r="8">
@@ -3400,22 +3403,22 @@
         <v>26</v>
       </c>
       <c r="E8" t="n">
-        <v>0.731578140203514</v>
+        <v>0.729281730090339</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0367098099462035</v>
+        <v>0.0369990199512496</v>
       </c>
       <c r="G8" t="n">
-        <v>19.9286823134091</v>
+        <v>19.7108391263134</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.659628234829645</v>
+        <v>0.656764983522611</v>
       </c>
       <c r="J8" t="n">
-        <v>0.803528045577383</v>
+        <v>0.801798476658067</v>
       </c>
     </row>
     <row r="9">
@@ -3432,22 +3435,22 @@
         <v>29</v>
       </c>
       <c r="E9" t="n">
-        <v>0.635173575056514</v>
+        <v>0.635885280529143</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0480492619288745</v>
+        <v>0.0478866347186508</v>
       </c>
       <c r="G9" t="n">
-        <v>13.2192160619811</v>
+        <v>13.278971977571</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.540998752192188</v>
+        <v>0.542029201139762</v>
       </c>
       <c r="J9" t="n">
-        <v>0.729348397920839</v>
+        <v>0.729741359918524</v>
       </c>
     </row>
     <row r="10">
@@ -3464,22 +3467,22 @@
         <v>31</v>
       </c>
       <c r="E10" t="n">
-        <v>0.722690996405245</v>
+        <v>0.721593330704285</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0446450610967912</v>
+        <v>0.0448125291218359</v>
       </c>
       <c r="G10" t="n">
-        <v>16.1874791668095</v>
+        <v>16.1024906392233</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.635188284567944</v>
+        <v>0.633762387569334</v>
       </c>
       <c r="J10" t="n">
-        <v>0.810193708242546</v>
+        <v>0.809424273839236</v>
       </c>
     </row>
     <row r="11">
@@ -3496,22 +3499,22 @@
         <v>33</v>
       </c>
       <c r="E11" t="n">
-        <v>0.76368010307489</v>
+        <v>0.763437619769872</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0351817567237413</v>
+        <v>0.0351734539757824</v>
       </c>
       <c r="G11" t="n">
-        <v>21.7067075152488</v>
+        <v>21.7049374876722</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.694725126983507</v>
+        <v>0.694498916765462</v>
       </c>
       <c r="J11" t="n">
-        <v>0.832635079166273</v>
+        <v>0.832376322774283</v>
       </c>
     </row>
     <row r="12">
@@ -3528,22 +3531,22 @@
         <v>35</v>
       </c>
       <c r="E12" t="n">
-        <v>0.581925778875607</v>
+        <v>0.582874326272125</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0532449298096949</v>
+        <v>0.053179721114645</v>
       </c>
       <c r="G12" t="n">
-        <v>10.9292242652116</v>
+        <v>10.9604622599574</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.477567634089242</v>
+        <v>0.478643988179536</v>
       </c>
       <c r="J12" t="n">
-        <v>0.686283923661972</v>
+        <v>0.687104664364713</v>
       </c>
     </row>
     <row r="13">
@@ -3560,22 +3563,22 @@
         <v>38</v>
       </c>
       <c r="E13" t="n">
-        <v>0.850247099235864</v>
+        <v>0.850251464488536</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0224726778041357</v>
+        <v>0.0224685716923143</v>
       </c>
       <c r="G13" t="n">
-        <v>37.8347033961121</v>
+        <v>37.8418119376665</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.806201460103585</v>
+        <v>0.806213873187544</v>
       </c>
       <c r="J13" t="n">
-        <v>0.894292738368142</v>
+        <v>0.894289055789528</v>
       </c>
     </row>
     <row r="14">
@@ -3592,22 +3595,22 @@
         <v>40</v>
       </c>
       <c r="E14" t="n">
-        <v>0.943219307209629</v>
+        <v>0.943234170888807</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0141365904375203</v>
+        <v>0.0141509808866301</v>
       </c>
       <c r="G14" t="n">
-        <v>66.7218387190595</v>
+        <v>66.6550381521593</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.915512099087896</v>
+        <v>0.915498758005097</v>
       </c>
       <c r="J14" t="n">
-        <v>0.970926515331362</v>
+        <v>0.970969583772517</v>
       </c>
     </row>
     <row r="15">
@@ -3624,22 +3627,22 @@
         <v>42</v>
       </c>
       <c r="E15" t="n">
-        <v>0.922183586828581</v>
+        <v>0.922164787713186</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0154881930576151</v>
+        <v>0.0155098968236929</v>
       </c>
       <c r="G15" t="n">
-        <v>59.5410699878362</v>
+        <v>59.4565391501823</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.891827286250052</v>
+        <v>0.891765948534816</v>
       </c>
       <c r="J15" t="n">
-        <v>0.95253988740711</v>
+        <v>0.952563626891556</v>
       </c>
     </row>
     <row r="16">
@@ -3656,22 +3659,22 @@
         <v>45</v>
       </c>
       <c r="E16" t="n">
-        <v>0.880499582303914</v>
+        <v>0.880492136841774</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0426422664777779</v>
+        <v>0.0426495112911985</v>
       </c>
       <c r="G16" t="n">
-        <v>20.6485174225617</v>
+        <v>20.6448353142907</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.79692227578831</v>
+        <v>0.796900630752791</v>
       </c>
       <c r="J16" t="n">
-        <v>0.964076888819518</v>
+        <v>0.964083642930758</v>
       </c>
     </row>
     <row r="17">
@@ -3688,22 +3691,22 @@
         <v>47</v>
       </c>
       <c r="E17" t="n">
-        <v>0.911166143952058</v>
+        <v>0.911175488885447</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0395599026999488</v>
+        <v>0.0395571285589536</v>
       </c>
       <c r="G17" t="n">
-        <v>23.0325678721459</v>
+        <v>23.0344193848015</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.83363015942825</v>
+        <v>0.833644941578077</v>
       </c>
       <c r="J17" t="n">
-        <v>0.988702128475866</v>
+        <v>0.988706036192816</v>
       </c>
     </row>
     <row r="18">
@@ -3720,22 +3723,22 @@
         <v>49</v>
       </c>
       <c r="E18" t="n">
-        <v>0.880771303219371</v>
+        <v>0.880768350639084</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0328926738968831</v>
+        <v>0.0328865326652826</v>
       </c>
       <c r="G18" t="n">
-        <v>26.7771269061477</v>
+        <v>26.7820374863929</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.81630284702626</v>
+        <v>0.81631193103873</v>
       </c>
       <c r="J18" t="n">
-        <v>0.945239759412483</v>
+        <v>0.945224770239438</v>
       </c>
     </row>
     <row r="19">
@@ -3752,22 +3755,22 @@
         <v>11</v>
       </c>
       <c r="E19" t="n">
-        <v>0.128177724248092</v>
+        <v>0.139081949235867</v>
       </c>
       <c r="F19" t="n">
-        <v>0.073058076369227</v>
+        <v>0.0734507364443455</v>
       </c>
       <c r="G19" t="n">
-        <v>1.75446344358011</v>
+        <v>1.89354056839513</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0793511285427511</v>
+        <v>0.0582860185289875</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.0150134742153693</v>
+        <v>-0.004878848832994</v>
       </c>
       <c r="J19" t="n">
-        <v>0.271368922711554</v>
+        <v>0.283042747304727</v>
       </c>
     </row>
     <row r="20">
@@ -3784,22 +3787,22 @@
         <v>53</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0649702775210975</v>
+        <v>0.0667149594217961</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0633656119249753</v>
+        <v>0.063409737187057</v>
       </c>
       <c r="G20" t="n">
-        <v>1.02532391856362</v>
+        <v>1.0521248373099</v>
       </c>
       <c r="H20" t="n">
-        <v>0.305210373548862</v>
+        <v>0.292742278174581</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.0592240397101958</v>
+        <v>-0.0575658417339857</v>
       </c>
       <c r="J20" t="n">
-        <v>0.189164594752391</v>
+        <v>0.190995760577578</v>
       </c>
     </row>
     <row r="21">
@@ -3816,22 +3819,22 @@
         <v>44</v>
       </c>
       <c r="E21" t="n">
-        <v>0.00510688068982373</v>
+        <v>0.00638285658075124</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0743768522124439</v>
+        <v>0.0745329091232107</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0686622321046454</v>
+        <v>0.0856380980675222</v>
       </c>
       <c r="H21" t="n">
-        <v>0.945258481636403</v>
+        <v>0.931754111814866</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.140669070930024</v>
+        <v>-0.139698960963739</v>
       </c>
       <c r="J21" t="n">
-        <v>0.150882832309672</v>
+        <v>0.152464674125241</v>
       </c>
     </row>
     <row r="22">
@@ -3848,22 +3851,22 @@
         <v>56</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.00955224993257984</v>
+        <v>-0.0112210863259108</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0612613726739832</v>
+        <v>0.060805645740824</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.155926149148084</v>
+        <v>-0.18454020492997</v>
       </c>
       <c r="H22" t="n">
-        <v>0.876091233362886</v>
+        <v>0.853589689747727</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.129622334017073</v>
+        <v>-0.130397962034627</v>
       </c>
       <c r="J22" t="n">
-        <v>0.110517834151913</v>
+        <v>0.107955789382806</v>
       </c>
     </row>
     <row r="23">
@@ -3880,22 +3883,22 @@
         <v>37</v>
       </c>
       <c r="E23" t="n">
-        <v>0.151468643043256</v>
+        <v>0.152901909050259</v>
       </c>
       <c r="F23" t="n">
-        <v>0.066449395286181</v>
+        <v>0.0662247411236181</v>
       </c>
       <c r="G23" t="n">
-        <v>2.27945856227763</v>
+        <v>2.30883362405065</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0226398205263645</v>
+        <v>0.0209528154078267</v>
       </c>
       <c r="I23" t="n">
-        <v>0.021230221487876</v>
+        <v>0.023103801562479</v>
       </c>
       <c r="J23" t="n">
-        <v>0.281707064598637</v>
+        <v>0.282700016538039</v>
       </c>
     </row>
     <row r="24">
@@ -3912,22 +3915,22 @@
         <v>11</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.202669937429743</v>
+        <v>-0.211116913416862</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0644771660084009</v>
+        <v>0.0623722605043811</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.14328234282717</v>
+        <v>-3.38478855359159</v>
       </c>
       <c r="H24" t="n">
-        <v>0.00167064609877343</v>
+        <v>0.000712331041680114</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.329042860631419</v>
+        <v>-0.333364297639799</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.0762970142280668</v>
+        <v>-0.0888695291939252</v>
       </c>
     </row>
     <row r="25">
@@ -3944,22 +3947,22 @@
         <v>53</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0598835362844159</v>
+        <v>0.0573105076831928</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0623174783384209</v>
+        <v>0.0624664810425406</v>
       </c>
       <c r="G25" t="n">
-        <v>0.960942866770262</v>
+        <v>0.91746015986019</v>
       </c>
       <c r="H25" t="n">
-        <v>0.336580895527665</v>
+        <v>0.358901560541876</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.062256476866244</v>
+        <v>-0.0651215454011408</v>
       </c>
       <c r="J25" t="n">
-        <v>0.182023549435076</v>
+        <v>0.179742560767526</v>
       </c>
     </row>
     <row r="26">
@@ -3976,22 +3979,22 @@
         <v>44</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0293719284023208</v>
+        <v>0.0276978452897853</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0673267309177016</v>
+        <v>0.0674788711810287</v>
       </c>
       <c r="G26" t="n">
-        <v>0.436259536174781</v>
+        <v>0.410466932908214</v>
       </c>
       <c r="H26" t="n">
-        <v>0.662648436402649</v>
+        <v>0.681463455485261</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.102586039393194</v>
+        <v>-0.104558311942449</v>
       </c>
       <c r="J26" t="n">
-        <v>0.161329896197835</v>
+        <v>0.159954002522019</v>
       </c>
     </row>
     <row r="27">
@@ -4008,22 +4011,22 @@
         <v>56</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.0124530595681958</v>
+        <v>-0.011972052967595</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0590076122968599</v>
+        <v>0.0587459707002506</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.211041577238306</v>
+        <v>-0.203793601925178</v>
       </c>
       <c r="H27" t="n">
-        <v>0.832854827968413</v>
+        <v>0.838514792847693</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.128105854483744</v>
+        <v>-0.127112039776932</v>
       </c>
       <c r="J27" t="n">
-        <v>0.103199735347352</v>
+        <v>0.103167933841741</v>
       </c>
     </row>
     <row r="28">
@@ -4040,22 +4043,22 @@
         <v>37</v>
       </c>
       <c r="E28" t="n">
-        <v>0.252351404099538</v>
+        <v>0.249948591363844</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0620348761572593</v>
+        <v>0.0617152020677406</v>
       </c>
       <c r="G28" t="n">
-        <v>4.06789566984584</v>
+        <v>4.05003277943564</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0000474396115794917</v>
+        <v>0.0000512104590519868</v>
       </c>
       <c r="I28" t="n">
-        <v>0.130765281045907</v>
+        <v>0.12898901801246</v>
       </c>
       <c r="J28" t="n">
-        <v>0.373937527153169</v>
+        <v>0.370908164715227</v>
       </c>
     </row>
     <row r="29">
@@ -4072,22 +4075,22 @@
         <v>37</v>
       </c>
       <c r="E29" t="n">
-        <v>0.084340393039269</v>
+        <v>0.0843451925132856</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0602724611062939</v>
+        <v>0.060271678879796</v>
       </c>
       <c r="G29" t="n">
-        <v>1.39931888446583</v>
+        <v>1.39941667597316</v>
       </c>
       <c r="H29" t="n">
-        <v>0.161717379134003</v>
+        <v>0.161688069059642</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.0337914599886581</v>
+        <v>-0.0337851273788779</v>
       </c>
       <c r="J29" t="n">
-        <v>0.202472246067196</v>
+        <v>0.202475512405449</v>
       </c>
     </row>
     <row r="30">
@@ -4104,22 +4107,22 @@
         <v>28</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.29855181610429</v>
+        <v>-0.300068156476108</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0760760267949859</v>
+        <v>0.0767049413647466</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.92438759859061</v>
+        <v>-3.9119794779482</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0000869506448746282</v>
+        <v>0.000091542692465918</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.447658088709366</v>
+        <v>-0.450407078987268</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.149445543499213</v>
+        <v>-0.149729233964948</v>
       </c>
     </row>
     <row r="31">
@@ -4136,22 +4139,22 @@
         <v>19</v>
       </c>
       <c r="E31" t="n">
-        <v>0.499702406529349</v>
+        <v>0.501910615149079</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0712588855479521</v>
+        <v>0.0723352435304633</v>
       </c>
       <c r="G31" t="n">
-        <v>7.0124925851259</v>
+        <v>6.93867319237964</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0000000000023410162697246</v>
+        <v>0.00000000000395794508278868</v>
       </c>
       <c r="I31" t="n">
-        <v>0.360037557276901</v>
+        <v>0.360136143016436</v>
       </c>
       <c r="J31" t="n">
-        <v>0.639367255781797</v>
+        <v>0.643685087281721</v>
       </c>
     </row>
     <row r="32">
@@ -4168,22 +4171,22 @@
         <v>11</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.0926152196022545</v>
+        <v>-0.0817543377238802</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0636589574933981</v>
+        <v>0.0635170194784055</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.45486547768017</v>
+        <v>-1.28712490597382</v>
       </c>
       <c r="H32" t="n">
-        <v>0.145706506738054</v>
+        <v>0.198050755759922</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.217384483582681</v>
+        <v>-0.206245408306884</v>
       </c>
       <c r="J32" t="n">
-        <v>0.032154044378172</v>
+        <v>0.0427367328591236</v>
       </c>
     </row>
     <row r="33">
@@ -4200,22 +4203,22 @@
         <v>37</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.123056120990055</v>
+        <v>-0.124581346506425</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0603005241312026</v>
+        <v>0.0601203751921034</v>
       </c>
       <c r="G33" t="n">
-        <v>-2.04071395336975</v>
+        <v>-2.07219842039156</v>
       </c>
       <c r="H33" t="n">
-        <v>0.04127926761666</v>
+        <v>0.0382469406713946</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.2412429765361</v>
+        <v>-0.242415116619983</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.00486926544400915</v>
+        <v>-0.00674757639286679</v>
       </c>
     </row>
     <row r="34">
@@ -4232,22 +4235,22 @@
         <v>56</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.0146196975085639</v>
+        <v>-0.0173889267115641</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0510093489473354</v>
+        <v>0.0510711087499068</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.286608196541735</v>
+        <v>-0.340484613261814</v>
       </c>
       <c r="H34" t="n">
-        <v>0.77441233769553</v>
+        <v>0.733491608202313</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.114596184320177</v>
+        <v>-0.11748646051191</v>
       </c>
       <c r="J34" t="n">
-        <v>0.0853567893030497</v>
+        <v>0.0827086070887817</v>
       </c>
     </row>
     <row r="35">
@@ -4264,22 +4267,22 @@
         <v>56</v>
       </c>
       <c r="E35" t="n">
-        <v>0.215709970851246</v>
+        <v>0.208861029009934</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0550205860607473</v>
+        <v>0.0537270945463571</v>
       </c>
       <c r="G35" t="n">
-        <v>3.92053204618876</v>
+        <v>3.88744321228321</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0000883536852789302</v>
+        <v>0.000101305678024133</v>
       </c>
       <c r="I35" t="n">
-        <v>0.107871603763895</v>
+        <v>0.103557858705096</v>
       </c>
       <c r="J35" t="n">
-        <v>0.323548337938597</v>
+        <v>0.314164199314772</v>
       </c>
     </row>
     <row r="36">
@@ -4296,22 +4299,22 @@
         <v>37</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0316002825466292</v>
+        <v>0.0201447528375056</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0622405574262468</v>
+        <v>0.0616261611471981</v>
       </c>
       <c r="G36" t="n">
-        <v>0.507712074784591</v>
+        <v>0.326886381733052</v>
       </c>
       <c r="H36" t="n">
-        <v>0.611655279158428</v>
+        <v>0.743753821572975</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.0903889683865114</v>
+        <v>-0.100640303516464</v>
       </c>
       <c r="J36" t="n">
-        <v>0.15358953347977</v>
+        <v>0.140929809191475</v>
       </c>
     </row>
     <row r="37">
@@ -4328,22 +4331,22 @@
         <v>53</v>
       </c>
       <c r="E37" t="n">
-        <v>0.00091741587849173</v>
+        <v>-0.0106294851769686</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0582356387579312</v>
+        <v>0.0549968083016825</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0157535127639823</v>
+        <v>-0.193274582747803</v>
       </c>
       <c r="H37" t="n">
-        <v>0.987431035269316</v>
+        <v>0.846743931046833</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.113222338703738</v>
+        <v>-0.11842124871292</v>
       </c>
       <c r="J37" t="n">
-        <v>0.115057170460722</v>
+        <v>0.0971622783589825</v>
       </c>
     </row>
     <row r="38">
@@ -4360,22 +4363,22 @@
         <v>28</v>
       </c>
       <c r="E38" t="n">
-        <v>0.539594545387629</v>
+        <v>0.54533370552392</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0701262166655502</v>
+        <v>0.0704306094511909</v>
       </c>
       <c r="G38" t="n">
-        <v>7.69461937410787</v>
+        <v>7.74285086801417</v>
       </c>
       <c r="H38" t="n">
-        <v>0.000000000000014210854715202</v>
+        <v>0.00000000000000976996261670138</v>
       </c>
       <c r="I38" t="n">
-        <v>0.402149686351098</v>
+        <v>0.40729224759038</v>
       </c>
       <c r="J38" t="n">
-        <v>0.67703940442416</v>
+        <v>0.683375163457461</v>
       </c>
     </row>
     <row r="39">
@@ -4392,22 +4395,22 @@
         <v>13</v>
       </c>
       <c r="E39" t="n">
-        <v>0.342184309621672</v>
+        <v>0.28446956219539</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0621212399609558</v>
+        <v>0.0487749840023406</v>
       </c>
       <c r="G39" t="n">
-        <v>5.50833032046271</v>
+        <v>5.83228406967268</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0000000362253180785643</v>
+        <v>0.00000000546737344286896</v>
       </c>
       <c r="I39" t="n">
-        <v>0.220428916623229</v>
+        <v>0.188872350204286</v>
       </c>
       <c r="J39" t="n">
-        <v>0.463939702620116</v>
+        <v>0.380066774186495</v>
       </c>
     </row>
     <row r="40">
@@ -4424,22 +4427,22 @@
         <v>15</v>
       </c>
       <c r="E40" t="n">
-        <v>0.182164977973905</v>
+        <v>0.105265441939928</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0550911460678598</v>
+        <v>0.040898497556267</v>
       </c>
       <c r="G40" t="n">
-        <v>3.30661078913696</v>
+        <v>2.57382173501867</v>
       </c>
       <c r="H40" t="n">
-        <v>0.000944319997257859</v>
+        <v>0.0100582081830867</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0741883158138646</v>
+        <v>0.0251058597078453</v>
       </c>
       <c r="J40" t="n">
-        <v>0.290141640133946</v>
+        <v>0.185425024172011</v>
       </c>
     </row>
     <row r="41">
@@ -4456,22 +4459,22 @@
         <v>17</v>
       </c>
       <c r="E41" t="n">
-        <v>0.22065205618977</v>
+        <v>0.201788716927335</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0451797742627944</v>
+        <v>0.0466266968740563</v>
       </c>
       <c r="G41" t="n">
-        <v>4.88386805357451</v>
+        <v>4.32775063334183</v>
       </c>
       <c r="H41" t="n">
-        <v>0.00000104024699298932</v>
+        <v>0.0000150639881952852</v>
       </c>
       <c r="I41" t="n">
-        <v>0.132101325805043</v>
+        <v>0.110402070336118</v>
       </c>
       <c r="J41" t="n">
-        <v>0.309202786574496</v>
+        <v>0.293175363518551</v>
       </c>
     </row>
     <row r="42">
@@ -4488,22 +4491,22 @@
         <v>20</v>
       </c>
       <c r="E42" t="n">
-        <v>0.346349729369701</v>
+        <v>0.342870557080988</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0506940480907866</v>
+        <v>0.0501561203169414</v>
       </c>
       <c r="G42" t="n">
-        <v>6.83215766768975</v>
+        <v>6.8360661652926</v>
       </c>
       <c r="H42" t="n">
-        <v>0.00000000000836464231213085</v>
+        <v>0.0000000000081397111273418</v>
       </c>
       <c r="I42" t="n">
-        <v>0.246991220881218</v>
+        <v>0.244566367655525</v>
       </c>
       <c r="J42" t="n">
-        <v>0.445708237858184</v>
+        <v>0.441174746506451</v>
       </c>
     </row>
     <row r="43">
@@ -4520,22 +4523,22 @@
         <v>22</v>
       </c>
       <c r="E43" t="n">
-        <v>0.369203345467349</v>
+        <v>0.370658696684722</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0508816186509456</v>
+        <v>0.0507602506688394</v>
       </c>
       <c r="G43" t="n">
-        <v>7.25612422042096</v>
+        <v>7.30214472546451</v>
       </c>
       <c r="H43" t="n">
-        <v>0.000000000000398348021235506</v>
+        <v>0.000000000000283106871279415</v>
       </c>
       <c r="I43" t="n">
-        <v>0.269477205436395</v>
+        <v>0.271170433527571</v>
       </c>
       <c r="J43" t="n">
-        <v>0.468929485498304</v>
+        <v>0.470146959841872</v>
       </c>
     </row>
     <row r="44">
@@ -4552,22 +4555,22 @@
         <v>24</v>
       </c>
       <c r="E44" t="n">
-        <v>0.552061227055211</v>
+        <v>0.551030389655605</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0577834415411364</v>
+        <v>0.0579077528892369</v>
       </c>
       <c r="G44" t="n">
-        <v>9.55396930904842</v>
+        <v>9.51565830415815</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.438807762731808</v>
+        <v>0.437533279567055</v>
       </c>
       <c r="J44" t="n">
-        <v>0.665314691378614</v>
+        <v>0.664527499744154</v>
       </c>
     </row>
     <row r="45">
@@ -4584,22 +4587,22 @@
         <v>26</v>
       </c>
       <c r="E45" t="n">
-        <v>0.464793424776367</v>
+        <v>0.468148158156442</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0537121901950947</v>
+        <v>0.0539654187645215</v>
       </c>
       <c r="G45" t="n">
-        <v>8.65340666779988</v>
+        <v>8.67496572572168</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.359519466463216</v>
+        <v>0.362377880967357</v>
       </c>
       <c r="J45" t="n">
-        <v>0.570067383089518</v>
+        <v>0.573918435345526</v>
       </c>
     </row>
     <row r="46">
@@ -4616,22 +4619,22 @@
         <v>29</v>
       </c>
       <c r="E46" t="n">
-        <v>0.596554529549927</v>
+        <v>0.595649910006373</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0610392398888132</v>
+        <v>0.0609008110572181</v>
       </c>
       <c r="G46" t="n">
-        <v>9.77329551672971</v>
+        <v>9.78065644227205</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.476919817724153</v>
+        <v>0.476286513704947</v>
       </c>
       <c r="J46" t="n">
-        <v>0.716189241375702</v>
+        <v>0.715013306307799</v>
       </c>
     </row>
     <row r="47">
@@ -4648,22 +4651,22 @@
         <v>31</v>
       </c>
       <c r="E47" t="n">
-        <v>0.477717723714794</v>
+        <v>0.479303065083097</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0645291677523277</v>
+        <v>0.0646728455931557</v>
       </c>
       <c r="G47" t="n">
-        <v>7.40312854410805</v>
+        <v>7.41119492558437</v>
       </c>
       <c r="H47" t="n">
-        <v>0.000000000000133004718350094</v>
+        <v>0.000000000000125233157177718</v>
       </c>
       <c r="I47" t="n">
-        <v>0.351242878967888</v>
+        <v>0.352546616942792</v>
       </c>
       <c r="J47" t="n">
-        <v>0.6041925684617</v>
+        <v>0.606059513223402</v>
       </c>
     </row>
     <row r="48">
@@ -4680,22 +4683,22 @@
         <v>33</v>
       </c>
       <c r="E48" t="n">
-        <v>0.416792700167525</v>
+        <v>0.417163000720112</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0537352145687216</v>
+        <v>0.0537054772087838</v>
       </c>
       <c r="G48" t="n">
-        <v>7.75641641170879</v>
+        <v>7.767606255473</v>
       </c>
       <c r="H48" t="n">
-        <v>0.00000000000000865973959207622</v>
+        <v>0.00000000000000799360577730113</v>
       </c>
       <c r="I48" t="n">
-        <v>0.311473614911299</v>
+        <v>0.311902199618359</v>
       </c>
       <c r="J48" t="n">
-        <v>0.522111785423752</v>
+        <v>0.522423801821865</v>
       </c>
     </row>
     <row r="49">
@@ -4712,22 +4715,22 @@
         <v>35</v>
       </c>
       <c r="E49" t="n">
-        <v>0.661362387880018</v>
+        <v>0.660257519772817</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0619691941434298</v>
+        <v>0.0619941879904938</v>
       </c>
       <c r="G49" t="n">
-        <v>10.6724380883391</v>
+        <v>10.6503132176529</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0.539904999207925</v>
+        <v>0.538751144060644</v>
       </c>
       <c r="J49" t="n">
-        <v>0.782819776552111</v>
+        <v>0.78176389548499</v>
       </c>
     </row>
     <row r="50">
@@ -4744,22 +4747,22 @@
         <v>38</v>
       </c>
       <c r="E50" t="n">
-        <v>0.277079870241</v>
+        <v>0.2770724471351</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0382146576520733</v>
+        <v>0.0382078695096594</v>
       </c>
       <c r="G50" t="n">
-        <v>7.2506176233131</v>
+        <v>7.25171151102923</v>
       </c>
       <c r="H50" t="n">
-        <v>0.000000000000414779321999958</v>
+        <v>0.000000000000411448652926083</v>
       </c>
       <c r="I50" t="n">
-        <v>0.202180517561408</v>
+        <v>0.202186398970161</v>
       </c>
       <c r="J50" t="n">
-        <v>0.351979222920591</v>
+        <v>0.351958495300038</v>
       </c>
     </row>
     <row r="51">
@@ -4776,22 +4779,22 @@
         <v>40</v>
       </c>
       <c r="E51" t="n">
-        <v>0.110337338506987</v>
+        <v>0.110309298867705</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0266678091027488</v>
+        <v>0.0266953778927362</v>
       </c>
       <c r="G51" t="n">
-        <v>4.13747293907299</v>
+        <v>4.13214974183678</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0000351151847703957</v>
+        <v>0.0000359386158932384</v>
       </c>
       <c r="I51" t="n">
-        <v>0.0580693931190104</v>
+        <v>0.0579873196442556</v>
       </c>
       <c r="J51" t="n">
-        <v>0.162605283894964</v>
+        <v>0.162631278091155</v>
       </c>
     </row>
     <row r="52">
@@ -4808,22 +4811,22 @@
         <v>42</v>
       </c>
       <c r="E52" t="n">
-        <v>0.149577432183974</v>
+        <v>0.149612104301895</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0285659158311871</v>
+        <v>0.0286053607547201</v>
       </c>
       <c r="G52" t="n">
-        <v>5.23622043374753</v>
+        <v>5.2302121125044</v>
       </c>
       <c r="H52" t="n">
-        <v>0.000000163898191463119</v>
+        <v>0.000000169315656606273</v>
       </c>
       <c r="I52" t="n">
-        <v>0.0935892659694446</v>
+        <v>0.0935466274578683</v>
       </c>
       <c r="J52" t="n">
-        <v>0.205565598398503</v>
+        <v>0.205677581145922</v>
       </c>
     </row>
     <row r="53">
@@ -4840,22 +4843,22 @@
         <v>45</v>
       </c>
       <c r="E53" t="n">
-        <v>0.224720485562633</v>
+        <v>0.224733596959806</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0750929973225228</v>
+        <v>0.0751051218159478</v>
       </c>
       <c r="G53" t="n">
-        <v>2.99256247020562</v>
+        <v>2.99225394388597</v>
       </c>
       <c r="H53" t="n">
-        <v>0.00276646042282058</v>
+        <v>0.00276925802418559</v>
       </c>
       <c r="I53" t="n">
-        <v>0.0775409153193256</v>
+        <v>0.0775302631460548</v>
       </c>
       <c r="J53" t="n">
-        <v>0.371900055805941</v>
+        <v>0.371936930773557</v>
       </c>
     </row>
     <row r="54">
@@ -4872,22 +4875,22 @@
         <v>47</v>
       </c>
       <c r="E54" t="n">
-        <v>0.169776258115537</v>
+        <v>0.169759228454368</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0720912881919083</v>
+        <v>0.0720869720893706</v>
       </c>
       <c r="G54" t="n">
-        <v>2.35501767791401</v>
+        <v>2.35492244346047</v>
       </c>
       <c r="H54" t="n">
-        <v>0.0185218245301044</v>
+        <v>0.0185265719839363</v>
       </c>
       <c r="I54" t="n">
-        <v>0.0284799296602995</v>
+        <v>0.0284713594046572</v>
       </c>
       <c r="J54" t="n">
-        <v>0.311072586570775</v>
+        <v>0.311047097504078</v>
       </c>
     </row>
     <row r="55">
@@ -4904,22 +4907,22 @@
         <v>49</v>
       </c>
       <c r="E55" t="n">
-        <v>0.22424191142525</v>
+        <v>0.224247112512508</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0579418491398672</v>
+        <v>0.0579308355380945</v>
       </c>
       <c r="G55" t="n">
-        <v>3.87012003852254</v>
+        <v>3.87094559278446</v>
       </c>
       <c r="H55" t="n">
-        <v>0.000108781777633737</v>
+        <v>0.000108413989452272</v>
       </c>
       <c r="I55" t="n">
-        <v>0.110677973913457</v>
+        <v>0.11070476126353</v>
       </c>
       <c r="J55" t="n">
-        <v>0.337805848937043</v>
+        <v>0.337789463761486</v>
       </c>
     </row>
     <row r="56">
@@ -4936,22 +4939,22 @@
         <v>53</v>
       </c>
       <c r="E56" t="n">
-        <v>0.992886698101982</v>
+        <v>0.992885888499897</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0101668077449725</v>
+        <v>0.0101672545485535</v>
       </c>
       <c r="G56" t="n">
-        <v>97.6596315193398</v>
+        <v>97.6552602040597</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0.972960121084093</v>
+        <v>0.972958435763081</v>
       </c>
       <c r="J56" t="n">
-        <v>1.01281327511987</v>
+        <v>1.01281334123671</v>
       </c>
     </row>
     <row r="57">
@@ -4968,22 +4971,22 @@
         <v>65</v>
       </c>
       <c r="E57" t="n">
-        <v>0.782277277423616</v>
+        <v>0.784058646951765</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0462101230052273</v>
+        <v>0.0460631988815907</v>
       </c>
       <c r="G57" t="n">
-        <v>16.9286993097838</v>
+        <v>17.0213677293071</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0.691707100612205</v>
+        <v>0.693776436131141</v>
       </c>
       <c r="J57" t="n">
-        <v>0.872847454235027</v>
+        <v>0.874340857772388</v>
       </c>
     </row>
     <row r="58">
@@ -5000,22 +5003,22 @@
         <v>11</v>
       </c>
       <c r="E58" t="n">
-        <v>0.952464898809073</v>
+        <v>0.95589439493299</v>
       </c>
       <c r="F58" t="n">
-        <v>0.02357544595963</v>
+        <v>0.0224615053980091</v>
       </c>
       <c r="G58" t="n">
-        <v>40.4007160857126</v>
+        <v>42.5570048843528</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0.906257873808727</v>
+        <v>0.91187065331434</v>
       </c>
       <c r="J58" t="n">
-        <v>0.998671923809418</v>
+        <v>0.99991813655164</v>
       </c>
     </row>
     <row r="59">
@@ -5032,22 +5035,22 @@
         <v>19</v>
       </c>
       <c r="E59" t="n">
-        <v>0.890884807486142</v>
+        <v>0.88762632757035</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0395906993386832</v>
+        <v>0.0390703544311784</v>
       </c>
       <c r="G59" t="n">
-        <v>22.5023761228607</v>
+        <v>22.7186658655448</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0.813288462659569</v>
+        <v>0.811049840022025</v>
       </c>
       <c r="J59" t="n">
-        <v>0.968481152312715</v>
+        <v>0.964202815118674</v>
       </c>
     </row>
     <row r="60">
@@ -5064,22 +5067,22 @@
         <v>28</v>
       </c>
       <c r="E60" t="n">
-        <v>0.953929772630738</v>
+        <v>0.951015358372547</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0265423317531808</v>
+        <v>0.0281764803897364</v>
       </c>
       <c r="G60" t="n">
-        <v>35.9399385668676</v>
+        <v>33.7520990988982</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0.90190775832879</v>
+        <v>0.895790471597565</v>
       </c>
       <c r="J60" t="n">
-        <v>1.00595178693269</v>
+        <v>1.00624024514753</v>
       </c>
     </row>
     <row r="61">
@@ -5152,22 +5155,22 @@
         <v>44</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.0376879220483397</v>
+        <v>-0.0376498742952306</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0671133681018246</v>
+        <v>0.0671266768397703</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.561556111908428</v>
+        <v>-0.560877970841605</v>
       </c>
       <c r="H63" t="n">
-        <v>0.574418489634546</v>
+        <v>0.574880728452695</v>
       </c>
       <c r="I63" t="n">
-        <v>-0.169227706409095</v>
+        <v>-0.169215743303039</v>
       </c>
       <c r="J63" t="n">
-        <v>0.0938518623124157</v>
+        <v>0.0939159947125782</v>
       </c>
     </row>
     <row r="64">
@@ -5282,64 +5285,64 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>3.13455392393109</v>
+        <v>3.47789541941432</v>
       </c>
       <c r="C2" t="n">
-        <v>2.42200826818769</v>
+        <v>2.77768236103788</v>
       </c>
       <c r="D2" t="n">
-        <v>2.35999636853752</v>
+        <v>2.47451361526325</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.405123014391124</v>
+        <v>-0.473741727161305</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.374223857219428</v>
+        <v>-0.4359464681314</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.338025603626737</v>
+        <v>-0.394688457498948</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.363268650295212</v>
+        <v>-0.422345408813097</v>
       </c>
       <c r="I2" t="n">
-        <v>0.202050219713936</v>
+        <v>0.235672137113022</v>
       </c>
       <c r="J2" t="n">
-        <v>0.265093330998657</v>
+        <v>0.308390915561552</v>
       </c>
       <c r="K2" t="n">
-        <v>0.275099991037896</v>
+        <v>0.320417643681708</v>
       </c>
       <c r="L2" t="n">
-        <v>0.194853936529115</v>
+        <v>0.227393468988764</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0563752851777591</v>
+        <v>0.0376322376114372</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0630289553284586</v>
+        <v>0.0420742223299204</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0629365005833236</v>
+        <v>0.0420109880157051</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.00400678256801258</v>
+        <v>-0.00267191852548519</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.00440127936101799</v>
+        <v>-0.00293504077225971</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.00403219079657168</v>
+        <v>-0.00268887439888952</v>
       </c>
       <c r="S2" t="n">
-        <v>0.00733559565332636</v>
+        <v>-0.0200881131562694</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.591020726406618</v>
+        <v>-0.641719012128437</v>
       </c>
       <c r="U2" t="n">
-        <v>0.154874604835228</v>
+        <v>0.164740254815197</v>
       </c>
     </row>
     <row r="3">
@@ -5347,64 +5350,64 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>2.42200826818769</v>
+        <v>2.77768236103788</v>
       </c>
       <c r="C3" t="n">
-        <v>3.47860858822825</v>
+        <v>3.46518414551236</v>
       </c>
       <c r="D3" t="n">
-        <v>2.77208780621423</v>
+        <v>2.76202622124836</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.475863684869281</v>
+        <v>-0.528785561917308</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.439569062572454</v>
+        <v>-0.486598889014979</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.397050040624664</v>
+        <v>-0.440547128984048</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.426700909072713</v>
+        <v>-0.471417528830824</v>
       </c>
       <c r="I3" t="n">
-        <v>0.23733127634387</v>
+        <v>0.263054775010626</v>
       </c>
       <c r="J3" t="n">
-        <v>0.311382678451103</v>
+        <v>0.344222715091094</v>
       </c>
       <c r="K3" t="n">
-        <v>0.32313665428154</v>
+        <v>0.357646823254735</v>
       </c>
       <c r="L3" t="n">
-        <v>0.228878412122275</v>
+        <v>0.253814212220762</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0662192716465748</v>
+        <v>0.0420047100997585</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0740347743046385</v>
+        <v>0.0469628069924805</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0739261755478641</v>
+        <v>0.0468922255121977</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.00470642804667639</v>
+        <v>-0.0029823675177654</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.00516981000948789</v>
+        <v>-0.00327606181813307</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.00473627294029791</v>
+        <v>-0.00300129348635092</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0086165027764452</v>
+        <v>-0.0224221418426576</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.694221978785055</v>
+        <v>-0.716280050851033</v>
       </c>
       <c r="U3" t="n">
-        <v>0.181918078044346</v>
+        <v>0.183881349727915</v>
       </c>
     </row>
     <row r="4">
@@ -5412,64 +5415,64 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>2.35999636853752</v>
+        <v>2.47451361526325</v>
       </c>
       <c r="C4" t="n">
-        <v>2.77208780621423</v>
+        <v>2.76202622124836</v>
       </c>
       <c r="D4" t="n">
-        <v>3.46586228267046</v>
+        <v>3.0826001951683</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.463679906861225</v>
+        <v>-0.471071527426229</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.428314554090548</v>
+        <v>-0.433489297743039</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.386884168113527</v>
+        <v>-0.39246383392406</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.415775870417145</v>
+        <v>-0.419964899488996</v>
       </c>
       <c r="I4" t="n">
-        <v>0.231254763936464</v>
+        <v>0.234343793752063</v>
       </c>
       <c r="J4" t="n">
-        <v>0.303410190634882</v>
+        <v>0.306652699791608</v>
       </c>
       <c r="K4" t="n">
-        <v>0.314863223491977</v>
+        <v>0.318611640414064</v>
       </c>
       <c r="L4" t="n">
-        <v>0.223018322662201</v>
+        <v>0.226111787545396</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0645238262254377</v>
+        <v>0.0374201271192868</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0721392246258432</v>
+        <v>0.0418370750176241</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0720334063778291</v>
+        <v>0.0417741971175464</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.00458592699489441</v>
+        <v>-0.00265685851339454</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.00503744475552502</v>
+        <v>-0.002918497696902</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.0046150077546471</v>
+        <v>-0.00267371881664729</v>
       </c>
       <c r="S4" t="n">
-        <v>0.00839589010863288</v>
+        <v>-0.0199748884362316</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.676447463211012</v>
+        <v>-0.638102024563406</v>
       </c>
       <c r="U4" t="n">
-        <v>0.177260337710256</v>
+        <v>0.163811712194728</v>
       </c>
     </row>
     <row r="5">
@@ -5477,64 +5480,64 @@
         <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.405123014391124</v>
+        <v>-0.473741727161305</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.475863684869281</v>
+        <v>-0.528785561917308</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.463679906861225</v>
+        <v>-0.471071527426229</v>
       </c>
       <c r="E5" t="n">
-        <v>3.13191738333106</v>
+        <v>3.13177572387365</v>
       </c>
       <c r="F5" t="n">
-        <v>1.89103818300146</v>
+        <v>1.89379560417115</v>
       </c>
       <c r="G5" t="n">
-        <v>1.70812018250206</v>
+        <v>1.71456662794503</v>
       </c>
       <c r="H5" t="n">
-        <v>1.83567903313243</v>
+        <v>1.83471122516591</v>
       </c>
       <c r="I5" t="n">
-        <v>0.791941999482838</v>
+        <v>0.79543135533038</v>
       </c>
       <c r="J5" t="n">
-        <v>1.03904139722231</v>
+        <v>1.04086892469202</v>
       </c>
       <c r="K5" t="n">
-        <v>1.07826280648798</v>
+        <v>1.08146106581653</v>
       </c>
       <c r="L5" t="n">
-        <v>0.763735948025431</v>
+        <v>0.767489519324324</v>
       </c>
       <c r="M5" t="n">
-        <v>0.443094396585717</v>
+        <v>0.443910136958936</v>
       </c>
       <c r="N5" t="n">
-        <v>0.495390432893267</v>
+        <v>0.496307819634921</v>
       </c>
       <c r="O5" t="n">
-        <v>0.494663763761964</v>
+        <v>0.495561907224035</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0665907397214865</v>
+        <v>0.061217912612619</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.073147080830112</v>
+        <v>0.0672464627184101</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0670130118827638</v>
+        <v>0.061606398700962</v>
       </c>
       <c r="S5" t="n">
-        <v>0.16392599154013</v>
+        <v>0.164035387561947</v>
       </c>
       <c r="T5" t="n">
-        <v>0.828751993186006</v>
+        <v>0.830878376953156</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.0401846251916705</v>
+        <v>-0.0402153190974941</v>
       </c>
     </row>
     <row r="6">
@@ -5542,64 +5545,64 @@
         <v>22</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.374223857219428</v>
+        <v>-0.4359464681314</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.439569062572454</v>
+        <v>-0.486598889014979</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.428314554090548</v>
+        <v>-0.433489297743039</v>
       </c>
       <c r="E6" t="n">
-        <v>1.89103818300146</v>
+        <v>1.89379560417115</v>
       </c>
       <c r="F6" t="n">
-        <v>2.7692073270305</v>
+        <v>2.76909843021309</v>
       </c>
       <c r="G6" t="n">
-        <v>1.57784006482817</v>
+        <v>1.57777798106878</v>
       </c>
       <c r="H6" t="n">
-        <v>1.69566986814636</v>
+        <v>1.68833740579448</v>
       </c>
       <c r="I6" t="n">
-        <v>0.731539752650072</v>
+        <v>0.731971599958265</v>
       </c>
       <c r="J6" t="n">
-        <v>0.95979262018375</v>
+        <v>0.957828085413116</v>
       </c>
       <c r="K6" t="n">
-        <v>0.996022571432122</v>
+        <v>0.99518177317703</v>
       </c>
       <c r="L6" t="n">
-        <v>0.705485006317814</v>
+        <v>0.706258972124239</v>
       </c>
       <c r="M6" t="n">
-        <v>0.409299122272366</v>
+        <v>0.408494851265407</v>
       </c>
       <c r="N6" t="n">
-        <v>0.457606485046392</v>
+        <v>0.45671223088645</v>
       </c>
       <c r="O6" t="n">
-        <v>0.456935239731812</v>
+        <v>0.456025827594493</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0615117941673167</v>
+        <v>0.0563339289316202</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.067568076263765</v>
+        <v>0.061881519477044</v>
       </c>
       <c r="R6" t="n">
-        <v>0.0619018591880045</v>
+        <v>0.0566914214817194</v>
       </c>
       <c r="S6" t="n">
-        <v>0.151423184251491</v>
+        <v>0.150948594468748</v>
       </c>
       <c r="T6" t="n">
-        <v>0.765542209529807</v>
+        <v>0.764590647418622</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.0371197016855368</v>
+        <v>-0.0370069287127845</v>
       </c>
     </row>
     <row r="7">
@@ -5607,64 +5610,64 @@
         <v>24</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.338025603626737</v>
+        <v>-0.394688457498948</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.397050040624664</v>
+        <v>-0.440547128984048</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.386884168113527</v>
+        <v>-0.39246383392406</v>
       </c>
       <c r="E7" t="n">
-        <v>1.70812018250206</v>
+        <v>1.71456662794503</v>
       </c>
       <c r="F7" t="n">
-        <v>1.57784006482817</v>
+        <v>1.57777798106878</v>
       </c>
       <c r="G7" t="n">
-        <v>3.18172360325843</v>
+        <v>3.18163391579622</v>
       </c>
       <c r="H7" t="n">
-        <v>1.53164962541593</v>
+        <v>1.52855301084799</v>
       </c>
       <c r="I7" t="n">
-        <v>0.660778733627077</v>
+        <v>0.662697745800951</v>
       </c>
       <c r="J7" t="n">
-        <v>0.86695295752848</v>
+        <v>0.86717915436105</v>
       </c>
       <c r="K7" t="n">
-        <v>0.899678426265545</v>
+        <v>0.900997685954229</v>
       </c>
       <c r="L7" t="n">
-        <v>0.637244233657614</v>
+        <v>0.639418563240864</v>
       </c>
       <c r="M7" t="n">
-        <v>0.369708077667762</v>
+        <v>0.369834863976027</v>
       </c>
       <c r="N7" t="n">
-        <v>0.413342723472108</v>
+        <v>0.413488946709724</v>
       </c>
       <c r="O7" t="n">
-        <v>0.412736406963245</v>
+        <v>0.412867504683398</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0555618273726973</v>
+        <v>0.0510024811307219</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0610322921009398</v>
+        <v>0.0560250472375061</v>
       </c>
       <c r="R7" t="n">
-        <v>0.055914161841834</v>
+        <v>0.0513261405556298</v>
       </c>
       <c r="S7" t="n">
-        <v>0.136776189631546</v>
+        <v>0.136662806715404</v>
       </c>
       <c r="T7" t="n">
-        <v>0.691492171025124</v>
+        <v>0.692229723849534</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.033529154613306</v>
+        <v>-0.0335045898479901</v>
       </c>
     </row>
     <row r="8">
@@ -5672,64 +5675,64 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.363268650295212</v>
+        <v>-0.422345408813097</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.426700909072713</v>
+        <v>-0.471417528830825</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.415775870417145</v>
+        <v>-0.419964899488996</v>
       </c>
       <c r="E8" t="n">
-        <v>1.83567903313243</v>
+        <v>1.83471122516591</v>
       </c>
       <c r="F8" t="n">
-        <v>1.69566986814636</v>
+        <v>1.68833740579448</v>
       </c>
       <c r="G8" t="n">
-        <v>1.53164962541593</v>
+        <v>1.52855301084799</v>
       </c>
       <c r="H8" t="n">
-        <v>3.07550411245184</v>
+        <v>3.07541118062469</v>
       </c>
       <c r="I8" t="n">
-        <v>0.710124310505045</v>
+        <v>0.709134876006772</v>
       </c>
       <c r="J8" t="n">
-        <v>0.931695195191727</v>
+        <v>0.927944882866988</v>
       </c>
       <c r="K8" t="n">
-        <v>0.966864533640773</v>
+        <v>0.964133175885964</v>
       </c>
       <c r="L8" t="n">
-        <v>0.684832303190948</v>
+        <v>0.684224454411275</v>
       </c>
       <c r="M8" t="n">
-        <v>0.397317105380898</v>
+        <v>0.395750252766659</v>
       </c>
       <c r="N8" t="n">
-        <v>0.444210295474739</v>
+        <v>0.442463302181267</v>
       </c>
       <c r="O8" t="n">
-        <v>0.44355870051429</v>
+        <v>0.44179831393123</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0597110686914217</v>
+        <v>0.0545763711463348</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0655900563095035</v>
+        <v>0.0599508828538789</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0600897147634425</v>
+        <v>0.0549227103146884</v>
       </c>
       <c r="S8" t="n">
-        <v>0.146990350041175</v>
+        <v>0.146239161229883</v>
       </c>
       <c r="T8" t="n">
-        <v>0.743131363313493</v>
+        <v>0.740736244389887</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.036033041909349</v>
+        <v>-0.0358523524760088</v>
       </c>
     </row>
     <row r="9">
@@ -5737,64 +5740,64 @@
         <v>29</v>
       </c>
       <c r="B9" t="n">
-        <v>0.202050219713936</v>
+        <v>0.235672137113022</v>
       </c>
       <c r="C9" t="n">
-        <v>0.23733127634387</v>
+        <v>0.263054775010626</v>
       </c>
       <c r="D9" t="n">
-        <v>0.231254763936464</v>
+        <v>0.234343793752063</v>
       </c>
       <c r="E9" t="n">
-        <v>0.791941999482838</v>
+        <v>0.79543135533038</v>
       </c>
       <c r="F9" t="n">
-        <v>0.731539752650072</v>
+        <v>0.731971599958265</v>
       </c>
       <c r="G9" t="n">
-        <v>0.660778733627077</v>
+        <v>0.662697745800951</v>
       </c>
       <c r="H9" t="n">
-        <v>0.710124310505045</v>
+        <v>0.709134876006772</v>
       </c>
       <c r="I9" t="n">
-        <v>2.85344776928901</v>
+        <v>2.85350643841311</v>
       </c>
       <c r="J9" t="n">
-        <v>1.51040789340202</v>
+        <v>1.5098358637493</v>
       </c>
       <c r="K9" t="n">
-        <v>1.56742229754761</v>
+        <v>1.56871692840812</v>
       </c>
       <c r="L9" t="n">
-        <v>1.11020870530886</v>
+        <v>1.11328446247009</v>
       </c>
       <c r="M9" t="n">
-        <v>0.213846815394234</v>
+        <v>0.214288642019891</v>
       </c>
       <c r="N9" t="n">
-        <v>0.23908599898194</v>
+        <v>0.239582563763932</v>
       </c>
       <c r="O9" t="n">
-        <v>0.238735292945548</v>
+        <v>0.239222489631159</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.00241041441596848</v>
+        <v>0.00078697105453617</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.00264773719073169</v>
+        <v>0.00086446952241272</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.00242569958788972</v>
+        <v>0.000791965137045166</v>
       </c>
       <c r="S9" t="n">
-        <v>0.119623368483233</v>
+        <v>0.120005158965968</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.135768457324523</v>
+        <v>-0.135450401033523</v>
       </c>
       <c r="U9" t="n">
-        <v>0.00970852143872733</v>
+        <v>0.00957489084472523</v>
       </c>
     </row>
     <row r="10">
@@ -5802,64 +5805,64 @@
         <v>31</v>
       </c>
       <c r="B10" t="n">
-        <v>0.265093330998657</v>
+        <v>0.308390915561552</v>
       </c>
       <c r="C10" t="n">
-        <v>0.311382678451103</v>
+        <v>0.344222715091093</v>
       </c>
       <c r="D10" t="n">
-        <v>0.303410190634882</v>
+        <v>0.306652699791608</v>
       </c>
       <c r="E10" t="n">
-        <v>1.03904139722231</v>
+        <v>1.04086892469202</v>
       </c>
       <c r="F10" t="n">
-        <v>0.95979262018375</v>
+        <v>0.957828085413116</v>
       </c>
       <c r="G10" t="n">
-        <v>0.86695295752848</v>
+        <v>0.86717915436105</v>
       </c>
       <c r="H10" t="n">
-        <v>0.931695195191727</v>
+        <v>0.927944882866988</v>
       </c>
       <c r="I10" t="n">
-        <v>1.51040789340202</v>
+        <v>1.5098358637493</v>
       </c>
       <c r="J10" t="n">
-        <v>3.79427176062831</v>
+        <v>3.79435579590992</v>
       </c>
       <c r="K10" t="n">
-        <v>2.05648476169316</v>
+        <v>2.05275878487358</v>
       </c>
       <c r="L10" t="n">
-        <v>1.45661273821289</v>
+        <v>1.45679849500813</v>
       </c>
       <c r="M10" t="n">
-        <v>0.280570665533418</v>
+        <v>0.280409348837293</v>
       </c>
       <c r="N10" t="n">
-        <v>0.313684904450973</v>
+        <v>0.313507939872882</v>
       </c>
       <c r="O10" t="n">
-        <v>0.313224772155545</v>
+        <v>0.313036761595992</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.00316250478480521</v>
+        <v>0.00102979812124528</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.00347387630903762</v>
+        <v>0.00113120944528145</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.00318255919080993</v>
+        <v>0.00103633317327224</v>
       </c>
       <c r="S10" t="n">
-        <v>0.156947897712743</v>
+        <v>0.157033840737296</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.178130529368706</v>
+        <v>-0.177244852529491</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0127377455511205</v>
+        <v>0.0125293103808476</v>
       </c>
     </row>
     <row r="11">
@@ -5867,64 +5870,64 @@
         <v>33</v>
       </c>
       <c r="B11" t="n">
-        <v>0.275099991037896</v>
+        <v>0.320417643681708</v>
       </c>
       <c r="C11" t="n">
-        <v>0.32313665428154</v>
+        <v>0.357646823254735</v>
       </c>
       <c r="D11" t="n">
-        <v>0.314863223491977</v>
+        <v>0.318611640414065</v>
       </c>
       <c r="E11" t="n">
-        <v>1.07826280648798</v>
+        <v>1.08146106581653</v>
       </c>
       <c r="F11" t="n">
-        <v>0.996022571432122</v>
+        <v>0.99518177317703</v>
       </c>
       <c r="G11" t="n">
-        <v>0.899678426265545</v>
+        <v>0.900997685954229</v>
       </c>
       <c r="H11" t="n">
-        <v>0.966864533640772</v>
+        <v>0.964133175885964</v>
       </c>
       <c r="I11" t="n">
-        <v>1.56742229754761</v>
+        <v>1.56871692840812</v>
       </c>
       <c r="J11" t="n">
-        <v>2.05648476169316</v>
+        <v>2.05275878487358</v>
       </c>
       <c r="K11" t="n">
-        <v>3.65926884841991</v>
+        <v>3.65936434179495</v>
       </c>
       <c r="L11" t="n">
-        <v>1.51159649968743</v>
+        <v>1.51361119130112</v>
       </c>
       <c r="M11" t="n">
-        <v>0.291161559149638</v>
+        <v>0.291344842817962</v>
       </c>
       <c r="N11" t="n">
-        <v>0.325525783987464</v>
+        <v>0.325734223353042</v>
       </c>
       <c r="O11" t="n">
-        <v>0.325048282762248</v>
+        <v>0.325244669914154</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.00328188202502019</v>
+        <v>0.001069958519616</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.00360500710403708</v>
+        <v>0.00117532471508627</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.00330269343846234</v>
+        <v>0.00107674842770394</v>
       </c>
       <c r="S11" t="n">
-        <v>0.162872317804219</v>
+        <v>0.163157896968889</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.184854544806166</v>
+        <v>-0.184157104299903</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0132185659811035</v>
+        <v>0.0130179324571793</v>
       </c>
     </row>
     <row r="12">
@@ -5932,64 +5935,64 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>0.194853936529115</v>
+        <v>0.227393468988764</v>
       </c>
       <c r="C12" t="n">
-        <v>0.228878412122275</v>
+        <v>0.253814212220762</v>
       </c>
       <c r="D12" t="n">
-        <v>0.223018322662201</v>
+        <v>0.226111787545396</v>
       </c>
       <c r="E12" t="n">
-        <v>0.763735948025431</v>
+        <v>0.767489519324324</v>
       </c>
       <c r="F12" t="n">
-        <v>0.705485006317814</v>
+        <v>0.706258972124239</v>
       </c>
       <c r="G12" t="n">
-        <v>0.637244233657614</v>
+        <v>0.639418563240864</v>
       </c>
       <c r="H12" t="n">
-        <v>0.684832303190948</v>
+        <v>0.684224454411275</v>
       </c>
       <c r="I12" t="n">
-        <v>1.11020870530886</v>
+        <v>1.11328446247009</v>
       </c>
       <c r="J12" t="n">
-        <v>1.45661273821289</v>
+        <v>1.45679849500813</v>
       </c>
       <c r="K12" t="n">
-        <v>1.51159649968743</v>
+        <v>1.51361119130112</v>
       </c>
       <c r="L12" t="n">
-        <v>3.16169004857785</v>
+        <v>3.16173918676566</v>
       </c>
       <c r="M12" t="n">
-        <v>0.206230381005161</v>
+        <v>0.206761131250852</v>
       </c>
       <c r="N12" t="n">
-        <v>0.230570638015564</v>
+        <v>0.231166530549071</v>
       </c>
       <c r="O12" t="n">
-        <v>0.23023242283395</v>
+        <v>0.230819105065739</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.00232456434980848</v>
+        <v>0.000759326411161216</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.00255343456314502</v>
+        <v>0.000834102520325583</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.00233930512031392</v>
+        <v>0.000764145062021042</v>
       </c>
       <c r="S12" t="n">
-        <v>0.115362825553132</v>
+        <v>0.115789629304939</v>
       </c>
       <c r="T12" t="n">
-        <v>-0.130932885911353</v>
+        <v>-0.130692312397375</v>
       </c>
       <c r="U12" t="n">
-        <v>0.00936273973317957</v>
+        <v>0.00923854500172274</v>
       </c>
     </row>
     <row r="13">
@@ -5997,61 +6000,61 @@
         <v>38</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0563752851777591</v>
+        <v>0.0376322376114372</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0662192716465748</v>
+        <v>0.0420047100997585</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0645238262254377</v>
+        <v>0.0374201271192868</v>
       </c>
       <c r="E13" t="n">
-        <v>0.443094396585717</v>
+        <v>0.443910136958936</v>
       </c>
       <c r="F13" t="n">
-        <v>0.409299122272366</v>
+        <v>0.408494851265407</v>
       </c>
       <c r="G13" t="n">
-        <v>0.369708077667762</v>
+        <v>0.369834863976027</v>
       </c>
       <c r="H13" t="n">
-        <v>0.397317105380898</v>
+        <v>0.395750252766659</v>
       </c>
       <c r="I13" t="n">
-        <v>0.213846815394234</v>
+        <v>0.214288642019891</v>
       </c>
       <c r="J13" t="n">
-        <v>0.280570665533418</v>
+        <v>0.280409348837293</v>
       </c>
       <c r="K13" t="n">
-        <v>0.291161559149638</v>
+        <v>0.291344842817962</v>
       </c>
       <c r="L13" t="n">
-        <v>0.206230381005161</v>
+        <v>0.206761131250852</v>
       </c>
       <c r="M13" t="n">
-        <v>2.12471697268346</v>
+        <v>2.12471224493522</v>
       </c>
       <c r="N13" t="n">
-        <v>1.71728652516837</v>
+        <v>1.71731891499967</v>
       </c>
       <c r="O13" t="n">
-        <v>1.71476750375701</v>
+        <v>1.71473791699506</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.109168772946816</v>
+        <v>-0.10905813510166</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.119917230117333</v>
+        <v>-0.119797841894096</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.109861045384231</v>
+        <v>-0.109750213065437</v>
       </c>
       <c r="S13" t="n">
-        <v>0.149048932011339</v>
+        <v>0.14905792021597</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.105606207895287</v>
+        <v>-0.105610416351906</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -6062,61 +6065,61 @@
         <v>40</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0630289553284586</v>
+        <v>0.0420742223299204</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0740347743046385</v>
+        <v>0.0469628069924805</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0721392246258432</v>
+        <v>0.0418370750176241</v>
       </c>
       <c r="E14" t="n">
-        <v>0.495390432893267</v>
+        <v>0.496307819634921</v>
       </c>
       <c r="F14" t="n">
-        <v>0.457606485046392</v>
+        <v>0.45671223088645</v>
       </c>
       <c r="G14" t="n">
-        <v>0.413342723472108</v>
+        <v>0.413488946709724</v>
       </c>
       <c r="H14" t="n">
-        <v>0.444210295474739</v>
+        <v>0.442463302181267</v>
       </c>
       <c r="I14" t="n">
-        <v>0.23908599898194</v>
+        <v>0.239582563763932</v>
       </c>
       <c r="J14" t="n">
-        <v>0.313684904450973</v>
+        <v>0.313507939872882</v>
       </c>
       <c r="K14" t="n">
-        <v>0.325525783987464</v>
+        <v>0.325734223353042</v>
       </c>
       <c r="L14" t="n">
-        <v>0.230570638015564</v>
+        <v>0.231166530549071</v>
       </c>
       <c r="M14" t="n">
-        <v>1.71728652516837</v>
+        <v>1.71731891499967</v>
       </c>
       <c r="N14" t="n">
-        <v>2.1580860402105</v>
+        <v>2.15808207373267</v>
       </c>
       <c r="O14" t="n">
-        <v>1.91715224237361</v>
+        <v>1.91713990281747</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.122053373062884</v>
+        <v>-0.121930996251979</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.134070412528213</v>
+        <v>-0.133938382472504</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.122827350673735</v>
+        <v>-0.122704764806968</v>
       </c>
       <c r="S14" t="n">
-        <v>0.166640371713869</v>
+        <v>0.166652223552506</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.118070337717173</v>
+        <v>-0.11807632019721</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -6127,61 +6130,61 @@
         <v>42</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0629365005833236</v>
+        <v>0.0420109880157051</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0739261755478641</v>
+        <v>0.0468922255121977</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0720334063778291</v>
+        <v>0.0417741971175464</v>
       </c>
       <c r="E15" t="n">
-        <v>0.494663763761964</v>
+        <v>0.495561907224035</v>
       </c>
       <c r="F15" t="n">
-        <v>0.456935239731812</v>
+        <v>0.456025827594493</v>
       </c>
       <c r="G15" t="n">
-        <v>0.412736406963245</v>
+        <v>0.412867504683398</v>
       </c>
       <c r="H15" t="n">
-        <v>0.443558700514289</v>
+        <v>0.44179831393123</v>
       </c>
       <c r="I15" t="n">
-        <v>0.238735292945548</v>
+        <v>0.239222489631159</v>
       </c>
       <c r="J15" t="n">
-        <v>0.313224772155545</v>
+        <v>0.313036761595992</v>
       </c>
       <c r="K15" t="n">
-        <v>0.325048282762248</v>
+        <v>0.325244669914154</v>
       </c>
       <c r="L15" t="n">
-        <v>0.23023242283395</v>
+        <v>0.230819105065739</v>
       </c>
       <c r="M15" t="n">
-        <v>1.71476750375701</v>
+        <v>1.71473791699506</v>
       </c>
       <c r="N15" t="n">
-        <v>1.91715224237361</v>
+        <v>1.91713990281747</v>
       </c>
       <c r="O15" t="n">
-        <v>2.2510456778701</v>
+        <v>2.25104167045267</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.121874337674457</v>
+        <v>-0.121747743359766</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.133873749807788</v>
+        <v>-0.133737083404007</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.122647179967383</v>
+        <v>-0.122520349000238</v>
       </c>
       <c r="S15" t="n">
-        <v>0.166395933375716</v>
+        <v>0.166401758101566</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.117897144889769</v>
+        <v>-0.117898860586093</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -6192,61 +6195,61 @@
         <v>45</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.00400678256801258</v>
+        <v>-0.00267191852548519</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.00470642804667639</v>
+        <v>-0.0029823675177654</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.00458592699489441</v>
+        <v>-0.00265685851339454</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0665907397214865</v>
+        <v>0.061217912612619</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0615117941673167</v>
+        <v>0.0563339289316202</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0555618273726973</v>
+        <v>0.0510024811307219</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0597110686914217</v>
+        <v>0.0545763711463348</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.00241041441596848</v>
+        <v>0.00078697105453617</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.00316250478480521</v>
+        <v>0.00102979812124528</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.00328188202502019</v>
+        <v>0.001069958519616</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.00232456434980848</v>
+        <v>0.000759326411161216</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.109168772946816</v>
+        <v>-0.10905813510166</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.122053373062884</v>
+        <v>-0.121930996251979</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.121874337674457</v>
+        <v>-0.121747743359766</v>
       </c>
       <c r="P16" t="n">
-        <v>7.04600193734983</v>
+        <v>7.04600928299995</v>
       </c>
       <c r="Q16" t="n">
-        <v>6.00045559831246</v>
+        <v>6.00046770029861</v>
       </c>
       <c r="R16" t="n">
-        <v>5.49726110390691</v>
+        <v>5.49719926659633</v>
       </c>
       <c r="S16" t="n">
-        <v>-0.0105934127105672</v>
+        <v>-0.0105832297964206</v>
       </c>
       <c r="T16" t="n">
-        <v>0.0607365275719643</v>
+        <v>0.0560098288217057</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -6257,61 +6260,61 @@
         <v>47</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.00440127936101799</v>
+        <v>-0.00293504077225971</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.00516981000948789</v>
+        <v>-0.00327606181813307</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.00503744475552502</v>
+        <v>-0.002918497696902</v>
       </c>
       <c r="E17" t="n">
-        <v>0.073147080830112</v>
+        <v>0.0672464627184101</v>
       </c>
       <c r="F17" t="n">
-        <v>0.067568076263765</v>
+        <v>0.061881519477044</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0610322921009398</v>
+        <v>0.0560250472375061</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0655900563095035</v>
+        <v>0.0599508828538788</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.00264773719073169</v>
+        <v>0.00086446952241272</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.00347387630903762</v>
+        <v>0.00113120944528145</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.00360500710403708</v>
+        <v>0.00117532471508627</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.00255343456314502</v>
+        <v>0.000834102520325586</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.119917230117333</v>
+        <v>-0.119797841894096</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.134070412528213</v>
+        <v>-0.133938382472504</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.133873749807788</v>
+        <v>-0.133737083404007</v>
       </c>
       <c r="P17" t="n">
-        <v>6.00045559831246</v>
+        <v>6.00046770029861</v>
       </c>
       <c r="Q17" t="n">
-        <v>7.93911764113713</v>
+        <v>7.93911280787729</v>
       </c>
       <c r="R17" t="n">
-        <v>6.03850631474458</v>
+        <v>6.03854639533463</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.0116364109941937</v>
+        <v>-0.0116254334323491</v>
       </c>
       <c r="T17" t="n">
-        <v>0.0667164790514152</v>
+        <v>0.0615255029938243</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -6322,61 +6325,61 @@
         <v>49</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.00403219079657168</v>
+        <v>-0.00268887439888952</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.00473627294029791</v>
+        <v>-0.00300129348635092</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.0046150077546471</v>
+        <v>-0.00267371881664729</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0670130118827638</v>
+        <v>0.061606398700962</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0619018591880045</v>
+        <v>0.0566914214817194</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0559141618418339</v>
+        <v>0.0513261405556297</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0600897147634425</v>
+        <v>0.0549227103146884</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.00242569958788972</v>
+        <v>0.000791965137045165</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.00318255919080994</v>
+        <v>0.00103633317327224</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.00330269343846234</v>
+        <v>0.00107674842770394</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.00233930512031392</v>
+        <v>0.000764145062021042</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.109861045384231</v>
+        <v>-0.109750213065437</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.122827350673735</v>
+        <v>-0.122704764806968</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.122647179967383</v>
+        <v>-0.122520349000238</v>
       </c>
       <c r="P18" t="n">
-        <v>5.49726110390691</v>
+        <v>5.49719926659633</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.03850631474458</v>
+        <v>6.03854639533463</v>
       </c>
       <c r="R18" t="n">
-        <v>7.13124489744246</v>
+        <v>7.13124544204466</v>
       </c>
       <c r="S18" t="n">
-        <v>-0.0106605887668673</v>
+        <v>-0.0106503904912268</v>
       </c>
       <c r="T18" t="n">
-        <v>0.0611216763910578</v>
+        <v>0.0563652646472523</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -6387,61 +6390,61 @@
         <v>53</v>
       </c>
       <c r="B19" t="n">
-        <v>0.00733559565332636</v>
+        <v>-0.0200881131562694</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0086165027764452</v>
+        <v>-0.0224221418426576</v>
       </c>
       <c r="D19" t="n">
-        <v>0.00839589010863288</v>
+        <v>-0.0199748884362316</v>
       </c>
       <c r="E19" t="n">
-        <v>0.16392599154013</v>
+        <v>0.164035387561947</v>
       </c>
       <c r="F19" t="n">
-        <v>0.151423184251491</v>
+        <v>0.150948594468748</v>
       </c>
       <c r="G19" t="n">
-        <v>0.136776189631546</v>
+        <v>0.136662806715404</v>
       </c>
       <c r="H19" t="n">
-        <v>0.146990350041175</v>
+        <v>0.146239161229883</v>
       </c>
       <c r="I19" t="n">
-        <v>0.119623368483233</v>
+        <v>0.120005158965968</v>
       </c>
       <c r="J19" t="n">
-        <v>0.156947897712743</v>
+        <v>0.157033840737296</v>
       </c>
       <c r="K19" t="n">
-        <v>0.162872317804219</v>
+        <v>0.163157896968889</v>
       </c>
       <c r="L19" t="n">
-        <v>0.115362825553132</v>
+        <v>0.115789629304939</v>
       </c>
       <c r="M19" t="n">
-        <v>0.149048932011339</v>
+        <v>0.14905792021597</v>
       </c>
       <c r="N19" t="n">
-        <v>0.166640371713869</v>
+        <v>0.166652223552506</v>
       </c>
       <c r="O19" t="n">
-        <v>0.166395933375716</v>
+        <v>0.166401758101566</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.0105934127105672</v>
+        <v>-0.0105832297964206</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.0116364109941937</v>
+        <v>-0.0116254334323491</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.0106605887668673</v>
+        <v>-0.0106503904912268</v>
       </c>
       <c r="S19" t="n">
-        <v>2.03327017786244</v>
+        <v>2.03326764033346</v>
       </c>
       <c r="T19" t="n">
-        <v>0.015073945621429</v>
+        <v>0.0172105398423776</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -6452,64 +6455,64 @@
         <v>65</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.591020726406617</v>
+        <v>-0.641719012128437</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.694221978785055</v>
+        <v>-0.716280050851033</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.676447463211012</v>
+        <v>-0.638102024563406</v>
       </c>
       <c r="E20" t="n">
-        <v>0.828751993186006</v>
+        <v>0.830878376953156</v>
       </c>
       <c r="F20" t="n">
-        <v>0.765542209529807</v>
+        <v>0.764590647418622</v>
       </c>
       <c r="G20" t="n">
-        <v>0.691492171025124</v>
+        <v>0.692229723849534</v>
       </c>
       <c r="H20" t="n">
-        <v>0.743131363313493</v>
+        <v>0.740736244389887</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.135768457324523</v>
+        <v>-0.135450401033523</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.178130529368706</v>
+        <v>-0.177244852529491</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.184854544806166</v>
+        <v>-0.184157104299903</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.130932885911353</v>
+        <v>-0.130692312397375</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.105606207895287</v>
+        <v>-0.105610416351906</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.118070337717173</v>
+        <v>-0.11807632019721</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.117897144889769</v>
+        <v>-0.117898860586093</v>
       </c>
       <c r="P20" t="n">
-        <v>0.0607365275719643</v>
+        <v>0.0560098288217057</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.0667164790514152</v>
+        <v>0.0615255029938243</v>
       </c>
       <c r="R20" t="n">
-        <v>0.0611216763910578</v>
+        <v>0.0563652646472523</v>
       </c>
       <c r="S20" t="n">
-        <v>0.015073945621429</v>
+        <v>0.0172105398423776</v>
       </c>
       <c r="T20" t="n">
-        <v>3.00703335912335</v>
+        <v>3.00702622765945</v>
       </c>
       <c r="U20" t="n">
-        <v>-0.0590188760091185</v>
+        <v>-0.058918718538303</v>
       </c>
     </row>
     <row r="21">
@@ -6517,37 +6520,37 @@
         <v>56</v>
       </c>
       <c r="B21" t="n">
-        <v>0.154874604835228</v>
+        <v>0.164740254815197</v>
       </c>
       <c r="C21" t="n">
-        <v>0.181918078044346</v>
+        <v>0.183881349727915</v>
       </c>
       <c r="D21" t="n">
-        <v>0.177260337710256</v>
+        <v>0.163811712194728</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.0401846251916705</v>
+        <v>-0.0402153190974941</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.0371197016855368</v>
+        <v>-0.0370069287127845</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.033529154613306</v>
+        <v>-0.0335045898479901</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.036033041909349</v>
+        <v>-0.0358523524760088</v>
       </c>
       <c r="I21" t="n">
-        <v>0.00970852143872733</v>
+        <v>0.00957489084472523</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0127377455511205</v>
+        <v>0.0125293103808476</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0132185659811035</v>
+        <v>0.0130179324571793</v>
       </c>
       <c r="L21" t="n">
-        <v>0.00936273973317957</v>
+        <v>0.00923854500172274</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -6571,7 +6574,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>-0.0590188760091185</v>
+        <v>-0.058918718538303</v>
       </c>
       <c r="U21" t="n">
         <v>0.25</v>
@@ -6667,64 +6670,64 @@
         <v>123</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.000516250180172761</v>
+        <v>0.00000276342241534167</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0292101765446429</v>
+        <v>-0.018176391358951</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0138862883582536</v>
+        <v>0.0351936778987514</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0612099861358102</v>
+        <v>-0.133082263595322</v>
       </c>
       <c r="G2" t="n">
-        <v>0.177705878157071</v>
+        <v>0.143616017516925</v>
       </c>
       <c r="H2" t="n">
-        <v>0.302443866292609</v>
+        <v>0.157065475110376</v>
       </c>
       <c r="I2" t="n">
-        <v>0.190305518752199</v>
+        <v>0.0994050355768658</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.233281619174739</v>
+        <v>-0.293040576593432</v>
       </c>
       <c r="K2" t="n">
-        <v>0.221181659372829</v>
+        <v>0.450195968651186</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0847004952219236</v>
+        <v>-0.229034288757161</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.0580152404050303</v>
+        <v>-0.0206517582643498</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0698895514876237</v>
+        <v>0.0420831084898899</v>
       </c>
       <c r="O2" t="n">
-        <v>0.107001855917647</v>
+        <v>0.0198371253119689</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0729918632694825</v>
+        <v>-0.0416871198038078</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.342779468970012</v>
+        <v>-0.203707596387991</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.201978235552459</v>
+        <v>-0.0170139565881099</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.360813870027464</v>
+        <v>-0.132444554332184</v>
       </c>
       <c r="T2" t="n">
-        <v>0.156611745126058</v>
+        <v>-0.0537713455461571</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0419765752914605</v>
+        <v>0.00505537990267368</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.038010699509784</v>
+        <v>0.0290467274333238</v>
       </c>
     </row>
     <row r="3">
@@ -6735,64 +6738,64 @@
         <v>123</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0292101765446429</v>
+        <v>-0.018176391358951</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.000710405391512126</v>
+        <v>0.00000439830613663261</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.0125818365352997</v>
+        <v>-0.000121876162405332</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.130960305887346</v>
+        <v>-0.348039479222709</v>
       </c>
       <c r="G3" t="n">
-        <v>0.14723861195798</v>
+        <v>-0.0699555033382296</v>
       </c>
       <c r="H3" t="n">
-        <v>0.159427058236092</v>
+        <v>-0.0238886400716571</v>
       </c>
       <c r="I3" t="n">
-        <v>0.103760535836481</v>
+        <v>0.0503888533642791</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.294699715824281</v>
+        <v>-0.274924107316918</v>
       </c>
       <c r="K3" t="n">
-        <v>0.447204205761635</v>
+        <v>0.346596934080853</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.231753299356992</v>
+        <v>-0.0902192121766914</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.0221367013978608</v>
+        <v>0.0036610162376261</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0134960744547523</v>
+        <v>0.00147240904873075</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.0121234266627492</v>
+        <v>0.0328225646681755</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.0736023073359668</v>
+        <v>-0.107578125865827</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.2016730868668</v>
+        <v>-0.36186369330627</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.0147791873508818</v>
+        <v>-0.13185736691294</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.130397155790776</v>
+        <v>-0.302489766963731</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.0824759614788717</v>
+        <v>-0.0087742448384811</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0575583465592924</v>
+        <v>-0.0614850834229765</v>
       </c>
       <c r="V3" t="n">
-        <v>0.0118689042041743</v>
+        <v>0.00102989287563529</v>
       </c>
     </row>
     <row r="4">
@@ -6803,64 +6806,64 @@
         <v>123</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0138862883582536</v>
+        <v>0.0351936778987514</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.0125818365352997</v>
+        <v>-0.000121876162405332</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.000673738851962202</v>
+        <v>0.00000370525535586808</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.413145134278792</v>
+        <v>-0.046714964643376</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.12823983826266</v>
+        <v>0.28430859678719</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0775516009421778</v>
+        <v>0.214187513066948</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.00525280504940057</v>
+        <v>0.386055022383853</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.243124096242755</v>
+        <v>-0.159521483608861</v>
       </c>
       <c r="K4" t="n">
-        <v>0.387409458537064</v>
+        <v>0.26086944579153</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.047435612413933</v>
+        <v>-0.145736040820213</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0344569057961865</v>
+        <v>0.0670764761708612</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.0210467070769484</v>
+        <v>0.0578934123226094</v>
       </c>
       <c r="O4" t="n">
-        <v>0.00764614703481277</v>
+        <v>0.027829603319969</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.132719306731458</v>
+        <v>-0.051271413601563</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.360260133829141</v>
+        <v>-0.106087603925455</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.130095983975548</v>
+        <v>-0.208208615474554</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.300876052695435</v>
+        <v>-0.306552521542149</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.0395922767897716</v>
+        <v>-0.00565446627823925</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.101317671062998</v>
+        <v>0.109767932619847</v>
       </c>
       <c r="V4" t="n">
-        <v>0.00765090489329456</v>
+        <v>-0.0203205879343728</v>
       </c>
     </row>
     <row r="5">
@@ -6871,64 +6874,64 @@
         <v>123</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0612099861358102</v>
+        <v>-0.133082263595322</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.130960305887346</v>
+        <v>-0.348039479222709</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.413145134278792</v>
+        <v>-0.046714964643376</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00176140942830383</v>
+        <v>0.00190306888570602</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0329490723467445</v>
+        <v>0.0301916511770526</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0248373469962091</v>
+        <v>0.0183909015532373</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.0689516776476875</v>
+        <v>-0.0679838696811617</v>
       </c>
       <c r="J5" t="n">
-        <v>0.290915743593386</v>
+        <v>0.287426387745843</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.52202518630532</v>
+        <v>-0.523852713775037</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0897985359019875</v>
+        <v>0.0866002765734413</v>
       </c>
       <c r="M5" t="n">
-        <v>0.00323649691697314</v>
+        <v>-0.000517074381919613</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.0927915360416184</v>
+        <v>-0.093607276414837</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.0981529412088024</v>
+        <v>-0.0990703279504562</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0112709023911826</v>
+        <v>0.0103727589291123</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.183131229803307</v>
+        <v>0.188504056912175</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.133705257049639</v>
+        <v>-0.127804638937937</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.158805488030048</v>
+        <v>-0.153398874848246</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0824414325696702</v>
+        <v>0.0823320365478531</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0460773195131283</v>
+        <v>0.0439509357459785</v>
       </c>
       <c r="V5" t="n">
-        <v>0.00172308673013205</v>
+        <v>0.00175378063595563</v>
       </c>
     </row>
     <row r="6">
@@ -6939,64 +6942,64 @@
         <v>123</v>
       </c>
       <c r="C6" t="n">
-        <v>0.177705878157071</v>
+        <v>0.143616017516925</v>
       </c>
       <c r="D6" t="n">
-        <v>0.14723861195798</v>
+        <v>-0.0699555033382295</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.12823983826266</v>
+        <v>0.28430859678719</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0329490723467445</v>
+        <v>0.0301916511770524</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00150273214109342</v>
+        <v>0.00161162895850842</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.0772711071586214</v>
+        <v>-0.0772090233992302</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0439751022678461</v>
+        <v>0.0513075646197256</v>
       </c>
       <c r="J6" t="n">
-        <v>0.269825745756847</v>
+        <v>0.269393898448654</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.360338819546517</v>
+        <v>-0.358374284775883</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.064752657913687</v>
+        <v>-0.0639118596585946</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0873006104322984</v>
+        <v>0.0865266446258736</v>
       </c>
       <c r="N6" t="n">
-        <v>0.119945301942473</v>
+        <v>0.120749572949433</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0343143160460073</v>
+        <v>0.0352085702059485</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0636610279058754</v>
+        <v>0.0645704400431947</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.205272120423047</v>
+        <v>0.210449985658744</v>
       </c>
       <c r="R6" t="n">
-        <v>0.12383063041802</v>
+        <v>0.129517187204741</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0796487490917099</v>
+        <v>0.084859186797995</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0859459554845122</v>
+        <v>0.0864205452672556</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.0273765290564342</v>
+        <v>-0.0264249669452492</v>
       </c>
       <c r="V6" t="n">
-        <v>0.00309603304648352</v>
+        <v>0.00298326007373114</v>
       </c>
     </row>
     <row r="7">
@@ -7007,64 +7010,64 @@
         <v>123</v>
       </c>
       <c r="C7" t="n">
-        <v>0.302443866292609</v>
+        <v>0.157065475110376</v>
       </c>
       <c r="D7" t="n">
-        <v>0.159427058236092</v>
+        <v>-0.023888640071657</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.0775516009421778</v>
+        <v>0.214187513066948</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0248373469962091</v>
+        <v>0.0183909015532373</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.0772711071586212</v>
+        <v>-0.0772090233992302</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00122692368390398</v>
+        <v>0.00131661114611381</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0507354451348223</v>
+        <v>0.0538320597027597</v>
       </c>
       <c r="J7" t="n">
-        <v>0.529690787748223</v>
+        <v>0.527771775574349</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.106317825705364</v>
+        <v>-0.106544022537934</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0515137588820337</v>
+        <v>0.0501944991933501</v>
       </c>
       <c r="M7" t="n">
-        <v>0.169406443839673</v>
+        <v>0.167232114256424</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0777815060302876</v>
+        <v>0.077654719722023</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.065587042648607</v>
+        <v>-0.0657332658862232</v>
       </c>
       <c r="P7" t="n">
-        <v>0.113531930980104</v>
+        <v>0.113400833259951</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.0708873768195471</v>
+        <v>-0.0663280305775717</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.276467064846246</v>
+        <v>-0.271459819982812</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.181525461149514</v>
+        <v>-0.17693743986331</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.324882348379489</v>
+        <v>-0.324768965463347</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.055966454138461</v>
+        <v>-0.0567040069628703</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.0300803128423153</v>
+        <v>-0.0301048776076312</v>
       </c>
     </row>
     <row r="8">
@@ -7075,64 +7078,64 @@
         <v>123</v>
       </c>
       <c r="C8" t="n">
-        <v>0.190305518752199</v>
+        <v>0.0994050355768658</v>
       </c>
       <c r="D8" t="n">
-        <v>0.103760535836481</v>
+        <v>0.0503888533642792</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.00525280504940057</v>
+        <v>0.386055022383853</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.0689516776476877</v>
+        <v>-0.0679838696811617</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0439751022678461</v>
+        <v>0.0513075646197259</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0507354451348223</v>
+        <v>0.05383205970276</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0014189644712399</v>
+        <v>0.00151189629838511</v>
       </c>
       <c r="J8" t="n">
-        <v>0.308309917988353</v>
+        <v>0.309299352486627</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.200015632151218</v>
+        <v>-0.196265319826479</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0904863994498056</v>
+        <v>0.0932177572046143</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.074682098366187</v>
+        <v>-0.0740742495865143</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0721867635312552</v>
+        <v>0.0737536161454944</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.0229540369403742</v>
+        <v>-0.0212070436469017</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.0168404483522504</v>
+        <v>-0.0150800617691908</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.210467065558349</v>
+        <v>0.215601763103436</v>
       </c>
       <c r="R8" t="n">
-        <v>0.135121376440373</v>
+        <v>0.140760549895998</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.252072192213866</v>
+        <v>-0.246905187765112</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.0416193896406291</v>
+        <v>-0.0408682008293369</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0172236662723053</v>
+        <v>0.019618785195911</v>
       </c>
       <c r="V8" t="n">
-        <v>0.00348866321112414</v>
+        <v>0.00330797377778401</v>
       </c>
     </row>
     <row r="9">
@@ -7143,64 +7146,64 @@
         <v>123</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.233281619174739</v>
+        <v>-0.293040576593432</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.294699715824281</v>
+        <v>-0.274924107316918</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.243124096242755</v>
+        <v>-0.159521483608861</v>
       </c>
       <c r="F9" t="n">
-        <v>0.290915743593386</v>
+        <v>0.287426387745843</v>
       </c>
       <c r="G9" t="n">
-        <v>0.269825745756847</v>
+        <v>0.269393898448654</v>
       </c>
       <c r="H9" t="n">
-        <v>0.529690787748223</v>
+        <v>0.527771775574349</v>
       </c>
       <c r="I9" t="n">
-        <v>0.308309917988353</v>
+        <v>0.309299352486627</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.000326379981917757</v>
+        <v>-0.000385049106021107</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0667777793685416</v>
+        <v>0.0673498090212625</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0843334701255987</v>
+        <v>-0.0856281009861146</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.168785085687698</v>
+        <v>-0.171860842848924</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0439697876658829</v>
+        <v>0.0435279610402262</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0271161648078429</v>
+        <v>0.0266196000258509</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0108358005035615</v>
+        <v>0.0103486038179498</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.507392743321049</v>
+        <v>0.504195357850544</v>
       </c>
       <c r="R9" t="n">
-        <v>0.350066445906987</v>
+        <v>0.346554239193842</v>
       </c>
       <c r="S9" t="n">
-        <v>0.110393044059154</v>
+        <v>0.10717537933422</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.0565128331378321</v>
+        <v>-0.0568946236205666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.18469881690577</v>
+        <v>0.18438076061477</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.0629629593085498</v>
+        <v>-0.0628293287145477</v>
       </c>
     </row>
     <row r="10">
@@ -7211,64 +7214,64 @@
         <v>123</v>
       </c>
       <c r="C10" t="n">
-        <v>0.221181659372829</v>
+        <v>0.450195968651186</v>
       </c>
       <c r="D10" t="n">
-        <v>0.447204205761635</v>
+        <v>0.346596934080853</v>
       </c>
       <c r="E10" t="n">
-        <v>0.387409458537064</v>
+        <v>0.26086944579153</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.522025186305321</v>
+        <v>-0.523852713775037</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.360338819546517</v>
+        <v>-0.358374284775883</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.106317825705364</v>
+        <v>-0.106544022537934</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.200015632151218</v>
+        <v>-0.196265319826478</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0667777793685413</v>
+        <v>0.0673498090212625</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.000567058411999444</v>
+        <v>-0.000651093693604832</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0324827114345299</v>
+        <v>0.0362086882541046</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0124709773432923</v>
+        <v>0.0122852205480515</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0124337810895997</v>
+        <v>0.0125950977857247</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.109560399006485</v>
+        <v>-0.109383434428395</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.170950341988534</v>
+        <v>-0.170762331428982</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0805455646904279</v>
+        <v>0.0763532617843774</v>
       </c>
       <c r="R10" t="n">
-        <v>0.25083807696417</v>
+        <v>0.246232991209851</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0136067856310937</v>
+        <v>0.00938789326701149</v>
       </c>
       <c r="T10" t="n">
-        <v>0.0533563633425423</v>
+        <v>0.0532704203179896</v>
       </c>
       <c r="U10" t="n">
-        <v>-0.305938655883911</v>
+        <v>-0.306824332723126</v>
       </c>
       <c r="V10" t="n">
-        <v>0.0493924319636724</v>
+        <v>0.0496008671339452</v>
       </c>
     </row>
     <row r="11">
@@ -7279,64 +7282,64 @@
         <v>123</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0847004952219237</v>
+        <v>-0.229034288757161</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.231753299356992</v>
+        <v>-0.0902192121766914</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.047435612413933</v>
+        <v>-0.145736040820213</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0897985359019875</v>
+        <v>0.0866002765734413</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.064752657913687</v>
+        <v>-0.0639118596585947</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0515137588820337</v>
+        <v>0.05019449919335</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0904863994498057</v>
+        <v>0.0932177572046143</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.0843334701255989</v>
+        <v>-0.0856281009861144</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0324827114345299</v>
+        <v>0.0362086882541051</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.000608437369880033</v>
+        <v>-0.000703930744917702</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0841459463053593</v>
+        <v>0.0821312546916706</v>
       </c>
       <c r="N11" t="n">
-        <v>0.00858284755881089</v>
+        <v>0.00839956389048696</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.00664689319232381</v>
+        <v>-0.00685533255790205</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0130701304585782</v>
+        <v>0.0128737433066723</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.31589145796005</v>
+        <v>-0.320243298504687</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.0795205630189986</v>
+        <v>-0.0843008948381219</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.374822223043627</v>
+        <v>-0.379201664909794</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.0325022327231645</v>
+        <v>-0.0327878118878342</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0879041579149503</v>
+        <v>0.087206717408688</v>
       </c>
       <c r="V11" t="n">
-        <v>0.00453291330883736</v>
+        <v>0.00473354683276152</v>
       </c>
     </row>
     <row r="12">
@@ -7347,64 +7350,64 @@
         <v>123</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0580152404050303</v>
+        <v>-0.0206517582643498</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.0221367013978608</v>
+        <v>0.0036610162376261</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0344569057961865</v>
+        <v>0.0670764761708612</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00323649691697314</v>
+        <v>-0.000517074381919613</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0873006104322984</v>
+        <v>0.0865266446258736</v>
       </c>
       <c r="H12" t="n">
-        <v>0.169406443839673</v>
+        <v>0.167232114256424</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.0746820983661869</v>
+        <v>-0.0740742495865143</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.168785085687698</v>
+        <v>-0.171860842848924</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0124709773432925</v>
+        <v>0.0122852205480517</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0841459463053595</v>
+        <v>0.0821312546916706</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.000307393908904885</v>
+        <v>-0.000356532096709383</v>
       </c>
       <c r="N12" t="n">
-        <v>0.164126049091825</v>
+        <v>0.163595298846134</v>
       </c>
       <c r="O12" t="n">
-        <v>0.140888694640856</v>
+        <v>0.140292802107349</v>
       </c>
       <c r="P12" t="n">
-        <v>0.100244451225081</v>
+        <v>0.0996577689932919</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.214727995633402</v>
+        <v>-0.217811886394372</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.303308419510634</v>
+        <v>-0.306695956594104</v>
       </c>
       <c r="S12" t="n">
-        <v>-0.523720250996368</v>
+        <v>-0.526823701178702</v>
       </c>
       <c r="T12" t="n">
-        <v>0.0836148012806618</v>
+        <v>0.0831879975288557</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0718750798121265</v>
+        <v>0.0716345062981487</v>
       </c>
       <c r="V12" t="n">
-        <v>-0.0226763492006352</v>
+        <v>-0.0225521544691784</v>
       </c>
     </row>
     <row r="13">
@@ -7415,61 +7418,61 @@
         <v>123</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0698895514876237</v>
+        <v>0.0420831084898899</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0134960744547523</v>
+        <v>0.00147240904873075</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.0210467070769484</v>
+        <v>0.0578934123226094</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0927915360416184</v>
+        <v>-0.093607276414837</v>
       </c>
       <c r="G13" t="n">
-        <v>0.119945301942473</v>
+        <v>0.120749572949433</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0777815060302876</v>
+        <v>0.077654719722023</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0721867635312552</v>
+        <v>0.0737536161454944</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0439697876658829</v>
+        <v>0.0435279610402262</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0124337810895997</v>
+        <v>0.0125950977857247</v>
       </c>
       <c r="L13" t="n">
-        <v>0.00858284755881089</v>
+        <v>0.00839956389048696</v>
       </c>
       <c r="M13" t="n">
-        <v>0.164126049091825</v>
+        <v>0.163595298846134</v>
       </c>
       <c r="N13" t="n">
-        <v>0.00000730167668328008</v>
+        <v>0.0000120294249237318</v>
       </c>
       <c r="O13" t="n">
-        <v>0.00132451786233689</v>
+        <v>0.00129212803103829</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.00576746874422551</v>
+        <v>-0.00573788198228042</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.116876529446546</v>
+        <v>-0.116987167291702</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.0340146946801891</v>
+        <v>-0.0341340829034259</v>
       </c>
       <c r="S13" t="n">
-        <v>0.07176056326447</v>
+        <v>0.0716497309456763</v>
       </c>
       <c r="T13" t="n">
-        <v>0.0330000158546323</v>
+        <v>0.0329910276500013</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.0774843701657059</v>
+        <v>-0.0774801617090867</v>
       </c>
       <c r="V13" t="n">
         <v>-0.022189349112426</v>
@@ -7483,61 +7486,61 @@
         <v>123</v>
       </c>
       <c r="C14" t="n">
-        <v>0.107001855917646</v>
+        <v>0.0198371253119689</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.0121234266627492</v>
+        <v>0.0328225646681755</v>
       </c>
       <c r="E14" t="n">
-        <v>0.00764614703481276</v>
+        <v>0.027829603319969</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.0981529412088024</v>
+        <v>-0.0990703279504562</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0343143160460074</v>
+        <v>0.0352085702059486</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.0655870426486071</v>
+        <v>-0.0657332658862232</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.0229540369403742</v>
+        <v>-0.0212070436469017</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0271161648078428</v>
+        <v>0.0266196000258509</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.109560399006485</v>
+        <v>-0.109383434428395</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.00664689319232381</v>
+        <v>-0.00685533255790199</v>
       </c>
       <c r="M14" t="n">
-        <v>0.140888694640856</v>
+        <v>0.140292802107349</v>
       </c>
       <c r="N14" t="n">
-        <v>0.00132451786233689</v>
+        <v>0.00129212803103829</v>
       </c>
       <c r="O14" t="n">
-        <v>0.00000541316997981767</v>
+        <v>0.00000937964781888567</v>
       </c>
       <c r="P14" t="n">
-        <v>0.00141678532149303</v>
+        <v>0.00142912487763347</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.0992706942453523</v>
+        <v>-0.0993930710562572</v>
       </c>
       <c r="R14" t="n">
-        <v>0.12310820126193</v>
+        <v>0.12297617120622</v>
       </c>
       <c r="S14" t="n">
-        <v>0.15146744188099</v>
+        <v>0.151344856014223</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.00713965395188537</v>
+        <v>-0.00715150579052243</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0107649212401585</v>
+        <v>0.0107709037201957</v>
       </c>
       <c r="V14" t="n">
         <v>-0.0162721893491124</v>
@@ -7551,61 +7554,61 @@
         <v>123</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0729918632694825</v>
+        <v>-0.0416871198038078</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.0736023073359668</v>
+        <v>-0.107578125865827</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.132719306731458</v>
+        <v>-0.051271413601563</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0112709023911826</v>
+        <v>0.0103727589291123</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0636610279058755</v>
+        <v>0.0645704400431948</v>
       </c>
       <c r="H15" t="n">
-        <v>0.113531930980104</v>
+        <v>0.113400833259951</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.0168404483522503</v>
+        <v>-0.0150800617691907</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0108358005035615</v>
+        <v>0.0103486038179497</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.170950341988534</v>
+        <v>-0.170762331428982</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0130701304585782</v>
+        <v>0.0128737433066723</v>
       </c>
       <c r="M15" t="n">
-        <v>0.100244451225081</v>
+        <v>0.099657768993292</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.00576746874422551</v>
+        <v>-0.00573788198228042</v>
       </c>
       <c r="O15" t="n">
-        <v>0.00141678532149325</v>
+        <v>0.00142912487763347</v>
       </c>
       <c r="P15" t="n">
-        <v>0.0000047055198324486</v>
+        <v>0.00000871293726767419</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.153630711313394</v>
+        <v>-0.153757305628085</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.0357937779522699</v>
+        <v>-0.0359304443560511</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.0324277359864074</v>
+        <v>-0.032554566953553</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.00565226193564006</v>
+        <v>-0.00565808666149065</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0322121198556312</v>
+        <v>0.032213835551955</v>
       </c>
       <c r="V15" t="n">
         <v>-0.00147928994082838</v>
@@ -7619,61 +7622,61 @@
         <v>123</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.342779468970012</v>
+        <v>-0.203707596387991</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.2016730868668</v>
+        <v>-0.36186369330627</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.360260133829141</v>
+        <v>-0.106087603925455</v>
       </c>
       <c r="F16" t="n">
-        <v>0.183131229803307</v>
+        <v>0.188504056912175</v>
       </c>
       <c r="G16" t="n">
-        <v>0.205272120423047</v>
+        <v>0.210449985658744</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.0708873768195471</v>
+        <v>-0.0663280305775717</v>
       </c>
       <c r="I16" t="n">
-        <v>0.210467065558349</v>
+        <v>0.215601763103436</v>
       </c>
       <c r="J16" t="n">
-        <v>0.507392743321049</v>
+        <v>0.504195357850544</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0805455646904279</v>
+        <v>0.0763532617843774</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.31589145796005</v>
+        <v>-0.320243298504687</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.214727995633402</v>
+        <v>-0.217811886394372</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.116876529446546</v>
+        <v>-0.116987167291702</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.0992706942453523</v>
+        <v>-0.0993930710562572</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.153630711313394</v>
+        <v>-0.153757305628085</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.00000866189244685955</v>
+        <v>-0.0000160075425679196</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.00233287068993882</v>
+        <v>-0.00234497267609513</v>
       </c>
       <c r="S16" t="n">
-        <v>-0.00170154136593137</v>
+        <v>-0.0016397040553473</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.177466752918527</v>
+        <v>-0.177476935832673</v>
       </c>
       <c r="U16" t="n">
-        <v>0.291164127705674</v>
+        <v>0.295890826455932</v>
       </c>
       <c r="V16" t="n">
         <v>0.12005006827492</v>
@@ -7687,61 +7690,61 @@
         <v>123</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.201978235552459</v>
+        <v>-0.0170139565881099</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.0147791873508818</v>
+        <v>-0.13185736691294</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.130095983975548</v>
+        <v>-0.208208615474554</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.133705257049639</v>
+        <v>-0.127804638937937</v>
       </c>
       <c r="G17" t="n">
-        <v>0.12383063041802</v>
+        <v>0.129517187204741</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.276467064846246</v>
+        <v>-0.271459819982812</v>
       </c>
       <c r="I17" t="n">
-        <v>0.135121376440373</v>
+        <v>0.140760549895998</v>
       </c>
       <c r="J17" t="n">
-        <v>0.350066445906987</v>
+        <v>0.346554239193842</v>
       </c>
       <c r="K17" t="n">
-        <v>0.25083807696417</v>
+        <v>0.246232991209851</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0795205630189986</v>
+        <v>-0.0843008948381219</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.303308419510634</v>
+        <v>-0.306695956594104</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.0340146946801891</v>
+        <v>-0.0341340829034259</v>
       </c>
       <c r="O17" t="n">
-        <v>0.12310820126193</v>
+        <v>0.12297617120622</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.0357937779522699</v>
+        <v>-0.0359304443560511</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.00233287068993882</v>
+        <v>-0.00234497267609513</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.0000196704110804191</v>
+        <v>-0.000014837151240954</v>
       </c>
       <c r="S17" t="n">
-        <v>0.00362431778555639</v>
+        <v>0.00358423719551126</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.351943854974483</v>
+        <v>-0.351954832536328</v>
       </c>
       <c r="U17" t="n">
-        <v>0.025899729710937</v>
+        <v>0.0310907057685279</v>
       </c>
       <c r="V17" t="n">
         <v>0.12608977276706</v>
@@ -7755,61 +7758,61 @@
         <v>123</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.360813870027464</v>
+        <v>-0.132444554332184</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.130397155790776</v>
+        <v>-0.302489766963731</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.300876052695435</v>
+        <v>-0.306552521542149</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.158805488030048</v>
+        <v>-0.153398874848246</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0796487490917099</v>
+        <v>0.084859186797995</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.181525461149514</v>
+        <v>-0.17693743986331</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.252072192213866</v>
+        <v>-0.246905187765112</v>
       </c>
       <c r="J18" t="n">
-        <v>0.110393044059154</v>
+        <v>0.10717537933422</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0136067856310937</v>
+        <v>0.00938789326701149</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.374822223043627</v>
+        <v>-0.379201664909794</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.523720250996368</v>
+        <v>-0.526823701178702</v>
       </c>
       <c r="N18" t="n">
-        <v>0.07176056326447</v>
+        <v>0.0716497309456763</v>
       </c>
       <c r="O18" t="n">
-        <v>0.15146744188099</v>
+        <v>0.151344856014223</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.0324277359864074</v>
+        <v>-0.032554566953553</v>
       </c>
       <c r="Q18" t="n">
-        <v>-0.00170154136593137</v>
+        <v>-0.0016397040553473</v>
       </c>
       <c r="R18" t="n">
-        <v>0.00362431778555639</v>
+        <v>0.00358423719551126</v>
       </c>
       <c r="S18" t="n">
-        <v>-0.0000105939596029003</v>
+        <v>-0.0000111385618088988</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.301735861973157</v>
+        <v>-0.301746060248797</v>
       </c>
       <c r="U18" t="n">
-        <v>-0.0933536333630449</v>
+        <v>-0.0885972216192394</v>
       </c>
       <c r="V18" t="n">
         <v>0.0523265992087111</v>
@@ -7823,61 +7826,61 @@
         <v>123</v>
       </c>
       <c r="C19" t="n">
-        <v>0.156611745126058</v>
+        <v>-0.0537713455461571</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.0824759614788717</v>
+        <v>-0.0087742448384811</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.0395922767897716</v>
+        <v>-0.00565446627823925</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0824414325696702</v>
+        <v>0.0823320365478531</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0859459554845122</v>
+        <v>0.0864205452672556</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.324882348379489</v>
+        <v>-0.324768965463347</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.0416193896406291</v>
+        <v>-0.0408682008293369</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.0565128331378321</v>
+        <v>-0.0568946236205666</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0533563633425424</v>
+        <v>0.0532704203179896</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.0325022327231645</v>
+        <v>-0.0327878118878342</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0836148012806618</v>
+        <v>0.0831879975288557</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0330000158546323</v>
+        <v>0.0329910276500013</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.00713965395188537</v>
+        <v>-0.00715150579052243</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.00565226193564006</v>
+        <v>-0.00565808666149065</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.177466752918527</v>
+        <v>-0.177476935832673</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.351943854974483</v>
+        <v>-0.351954832536328</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.301735861973157</v>
+        <v>-0.301746060248797</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.0000080371810953217</v>
+        <v>-0.00000549965211638082</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0996279205597272</v>
+        <v>0.0974913263387786</v>
       </c>
       <c r="V19" t="n">
         <v>-0.0236686390532544</v>
@@ -7891,64 +7894,64 @@
         <v>123</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0419765752914604</v>
+        <v>0.00505537990267368</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0575583465592924</v>
+        <v>-0.0614850834229765</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.101317671062998</v>
+        <v>0.109767932619847</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0460773195131283</v>
+        <v>0.0439509357459784</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.0273765290564341</v>
+        <v>-0.0264249669452492</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.055966454138461</v>
+        <v>-0.0567040069628704</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0172236662723052</v>
+        <v>0.0196187851959108</v>
       </c>
       <c r="J20" t="n">
-        <v>0.18469881690577</v>
+        <v>0.18438076061477</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.305938655883911</v>
+        <v>-0.306824332723126</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0879041579149503</v>
+        <v>0.0872067174086881</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0718750798121266</v>
+        <v>0.0716345062981488</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.0774843701657059</v>
+        <v>-0.0774801617090867</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0107649212401585</v>
+        <v>0.0107709037201958</v>
       </c>
       <c r="P20" t="n">
-        <v>0.0322121198556312</v>
+        <v>0.032213835551955</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.291164127705674</v>
+        <v>0.295890826455932</v>
       </c>
       <c r="R20" t="n">
-        <v>0.025899729710937</v>
+        <v>0.0310907057685279</v>
       </c>
       <c r="S20" t="n">
-        <v>-0.0933536333630449</v>
+        <v>-0.0885972216192394</v>
       </c>
       <c r="T20" t="n">
-        <v>0.0996279205597272</v>
+        <v>0.0974913263387786</v>
       </c>
       <c r="U20" t="n">
-        <v>0.000363090580798975</v>
+        <v>0.000370222044697943</v>
       </c>
       <c r="V20" t="n">
-        <v>0.00132656831681086</v>
+        <v>0.0012264108459954</v>
       </c>
     </row>
     <row r="21">
@@ -7959,37 +7962,37 @@
         <v>123</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.038010699509784</v>
+        <v>0.0290467274333238</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0118689042041743</v>
+        <v>0.00102989287563529</v>
       </c>
       <c r="E21" t="n">
-        <v>0.00765090489329456</v>
+        <v>-0.0203205879343728</v>
       </c>
       <c r="F21" t="n">
-        <v>0.00172308673013205</v>
+        <v>0.00175378063595563</v>
       </c>
       <c r="G21" t="n">
-        <v>0.00309603304648352</v>
+        <v>0.00298326007373114</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.0300803128423153</v>
+        <v>-0.0301048776076312</v>
       </c>
       <c r="I21" t="n">
-        <v>0.00348866321112414</v>
+        <v>0.00330797377778401</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.0629629593085498</v>
+        <v>-0.0628293287145477</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0493924319636724</v>
+        <v>0.0496008671339452</v>
       </c>
       <c r="L21" t="n">
-        <v>0.00453291330883736</v>
+        <v>0.00473354683276152</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.0226763492006352</v>
+        <v>-0.0225521544691784</v>
       </c>
       <c r="N21" t="n">
         <v>-0.022189349112426</v>
@@ -8013,7 +8016,7 @@
         <v>-0.0236686390532544</v>
       </c>
       <c r="U21" t="n">
-        <v>0.00132656831681086</v>
+        <v>0.0012264108459954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -8454,44 +8457,44 @@
         <v>216</v>
       </c>
       <c r="B53" t="s">
-        <v>145</v>
+        <v>217</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B54" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B55" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B56" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B57" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B58" t="s">
         <v>145</v>
@@ -8499,154 +8502,154 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B59" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B60" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B61" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B62" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>235</v>
+      </c>
+      <c r="B63" t="s">
         <v>234</v>
-      </c>
-      <c r="B63" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B64" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>238</v>
+      </c>
+      <c r="B65" t="s">
         <v>237</v>
-      </c>
-      <c r="B65" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B66" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B67" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>242</v>
+      </c>
+      <c r="B68" t="s">
         <v>241</v>
-      </c>
-      <c r="B68" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B69" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>245</v>
+      </c>
+      <c r="B70" t="s">
         <v>244</v>
-      </c>
-      <c r="B70" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B71" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B72" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B73" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B74" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B75" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B76" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B77" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
